--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\templateG\New folder\Temp_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="11" r:id="rId1"/>
-    <sheet name="マスタリスト (2)" sheetId="24" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -26,29 +26,18 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_Key1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
-    <definedName name="_Parse_In" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
-    <definedName name="_Parse_Out" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="_Sort" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_" localSheetId="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
-    <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="1">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="1">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="AAA" localSheetId="1">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -56,219 +45,128 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守委託単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守支援単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="ｈｈｈ" localSheetId="1">#REF!</definedName>
     <definedName name="ｈｈｈ">#REF!</definedName>
     <definedName name="HW9707K">[3]仕切価格!$B$1:$BD$231</definedName>
-    <definedName name="ＩＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＩＨ">#REF!</definedName>
-    <definedName name="item1" localSheetId="1">#REF!</definedName>
     <definedName name="item1">#REF!</definedName>
-    <definedName name="Ｉホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｉホ">#REF!</definedName>
     <definedName name="k" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="kkkk" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="ＬＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
-    <definedName name="ＬサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
-    <definedName name="Ｌサホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌサホ">#REF!</definedName>
-    <definedName name="ＬニＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬニＨ">#REF!</definedName>
-    <definedName name="Ｌニホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌニホ">#REF!</definedName>
-    <definedName name="Ｌホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌホ">#REF!</definedName>
-    <definedName name="ＭＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
-    <definedName name="Ｍホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="1">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ＯＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
-    <definedName name="OPT_NO" localSheetId="1">[5]!OPT_NO</definedName>
     <definedName name="OPT_NO">[5]!OPT_NO</definedName>
-    <definedName name="OPT_YES" localSheetId="1">[5]!OPT_YES</definedName>
     <definedName name="OPT_YES">[5]!OPT_YES</definedName>
-    <definedName name="Ｏホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
-    <definedName name="PG単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
-    <definedName name="PG田中" localSheetId="1">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'マスタリスト (2)'!$A$1:$P$67</definedName>
-    <definedName name="PrintDaicho" localSheetId="1">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
-    <definedName name="QuitDaicho" localSheetId="1">[7]!QuitDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
-    <definedName name="SE単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
-    <definedName name="sss" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
-    <definedName name="SS単価" localSheetId="1">#REF!</definedName>
     <definedName name="SS単価">#REF!</definedName>
-    <definedName name="STEP概算" localSheetId="1">#REF!</definedName>
     <definedName name="STEP概算">#REF!</definedName>
-    <definedName name="ＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＳＷ">#REF!</definedName>
-    <definedName name="Ver002001006特休残管理対応" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
-    <definedName name="ｗ" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="ｗ">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="WC単価">'[2]見積明細(ハードのみ）'!$X$5:$X$34</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.PRINT_ALL." hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="wrn.REPORT1." hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="あ" localSheetId="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
-    <definedName name="あ１" localSheetId="1">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="ああああああああああ" localSheetId="1">#REF!</definedName>
     <definedName name="ああああああああああ">#REF!</definedName>
-    <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
-    <definedName name="クＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クＨ">#REF!</definedName>
-    <definedName name="クサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クサＨ">#REF!</definedName>
-    <definedName name="クサホ" localSheetId="1">#REF!</definedName>
     <definedName name="クサホ">#REF!</definedName>
-    <definedName name="クにＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クにＨ">#REF!</definedName>
-    <definedName name="クニホ" localSheetId="1">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
-    <definedName name="クホ" localSheetId="1">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ1" localSheetId="1">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
-    <definedName name="ツール別見積工数" localSheetId="1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[9]項目定義書!$A$3:$E$364</definedName>
-    <definedName name="ハ１" localSheetId="1">#REF!</definedName>
     <definedName name="ハ１">#REF!</definedName>
-    <definedName name="は２" localSheetId="1">#REF!</definedName>
     <definedName name="は２">#REF!</definedName>
-    <definedName name="ハ２ホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハ２ホ">#REF!</definedName>
-    <definedName name="は３" localSheetId="1">#REF!</definedName>
     <definedName name="は３">#REF!</definedName>
-    <definedName name="ハサホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハサホ">#REF!</definedName>
-    <definedName name="ﾊﾞｽ･ﾀｸｼｰ" localSheetId="1">#REF!</definedName>
     <definedName name="ﾊﾞｽ･ﾀｸｼｰ">#REF!</definedName>
-    <definedName name="ハホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハホ">#REF!</definedName>
-    <definedName name="ヘッダー" localSheetId="1">#REF!</definedName>
     <definedName name="ヘッダー">#REF!</definedName>
-    <definedName name="ユーザー一覧" localSheetId="1">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
-    <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="1">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="価格表">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT">[11]!機種SORT</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
+    <definedName name="銀行の登録48">#REF!</definedName>
+    <definedName name="銀行の登録67">#REF!</definedName>
+    <definedName name="銀行の登録7">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
+    <definedName name="項目名の登録1">#REF!</definedName>
+    <definedName name="項目名の登録2">#REF!</definedName>
+    <definedName name="項目名の登録3">#REF!</definedName>
+    <definedName name="項目名の登録4">#REF!</definedName>
+    <definedName name="項目名の登録5">#REF!</definedName>
+    <definedName name="項目名の登録6">#REF!</definedName>
+    <definedName name="項目名の登録7">#REF!</definedName>
+    <definedName name="項目名の登録8">#REF!</definedName>
     <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
     <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
+    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
     <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
     <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="住民税納付先の登録7">#REF!</definedName>
-    <definedName name="価格表" localSheetId="1">#REF!</definedName>
-    <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
+    <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
     <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
     <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価" localSheetId="1">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="原価" localSheetId="1">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値" localSheetId="1">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価" localSheetId="1">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[11]!機種SORT</definedName>
-    <definedName name="機能別原価" localSheetId="1">#REF!</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
-    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別" localSheetId="1">#REF!</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
-    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
-    <definedName name="銀行の登録48" localSheetId="1">#REF!</definedName>
-    <definedName name="銀行の登録48">#REF!</definedName>
-    <definedName name="銀行の登録67" localSheetId="1">#REF!</definedName>
-    <definedName name="銀行の登録67">#REF!</definedName>
-    <definedName name="銀行の登録7" localSheetId="1">#REF!</definedName>
-    <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車" localSheetId="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
-    <definedName name="項目名の登録1" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録1">#REF!</definedName>
-    <definedName name="項目名の登録2" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録2">#REF!</definedName>
-    <definedName name="項目名の登録3" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録3">#REF!</definedName>
-    <definedName name="項目名の登録4" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録4">#REF!</definedName>
-    <definedName name="項目名の登録5" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録5">#REF!</definedName>
-    <definedName name="項目名の登録6" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録6">#REF!</definedName>
-    <definedName name="項目名の登録7" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録7">#REF!</definedName>
-    <definedName name="項目名の登録8" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録8">#REF!</definedName>
-    <definedName name="飛行機" localSheetId="1">#REF!</definedName>
-    <definedName name="飛行機">#REF!</definedName>
+    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -331,17 +229,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -369,7 +267,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -934,15 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -981,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1151,16 +1040,13 @@
     <xf numFmtId="38" fontId="4" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="4" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44792,26 +44678,26 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="1" customWidth="1"/>
     <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
+    <col min="15" max="15" width="25.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="57"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44825,7 +44711,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -44840,57 +44727,57 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="19"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="61" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="61"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -44928,9 +44815,9 @@
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="61"/>
+      <c r="O5" s="60"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -44944,9 +44831,9 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="57"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -44960,9 +44847,9 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="59"/>
+      <c r="O7" s="58"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -44976,9 +44863,9 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="60"/>
+      <c r="O8" s="59"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -44992,9 +44879,9 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="59"/>
+      <c r="O9" s="58"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -45008,9 +44895,9 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="60"/>
+      <c r="O10" s="59"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -45024,9 +44911,9 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="59"/>
+      <c r="O11" s="58"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -45040,9 +44927,9 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="60"/>
+      <c r="O12" s="59"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -45056,9 +44943,9 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="59"/>
+      <c r="O13" s="58"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -45072,9 +44959,9 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="60"/>
+      <c r="O14" s="59"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -45088,9 +44975,9 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="59"/>
+      <c r="O15" s="58"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -45104,9 +44991,9 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="60"/>
+      <c r="O16" s="59"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -45120,9 +45007,9 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="59"/>
+      <c r="O17" s="58"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -45136,9 +45023,9 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="60"/>
+      <c r="O18" s="59"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -45152,9 +45039,9 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="59"/>
+      <c r="O19" s="58"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
+    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -45168,9 +45055,9 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="60"/>
+      <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -45184,9 +45071,9 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="59"/>
+      <c r="O21" s="58"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -45200,9 +45087,9 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="60"/>
+      <c r="O22" s="59"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
+    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -45216,9 +45103,9 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="59"/>
+      <c r="O23" s="58"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
+    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -45232,9 +45119,9 @@
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="60"/>
+      <c r="O24" s="59"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -45248,9 +45135,9 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="59"/>
+      <c r="O25" s="58"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -45264,9 +45151,9 @@
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
-      <c r="O26" s="60"/>
+      <c r="O26" s="59"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
+    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -45280,9 +45167,9 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
-      <c r="O27" s="59"/>
+      <c r="O27" s="58"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -45296,9 +45183,9 @@
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
-      <c r="O28" s="60"/>
+      <c r="O28" s="59"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
+    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -45312,9 +45199,9 @@
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="59"/>
+      <c r="O29" s="58"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -45328,9 +45215,9 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
-      <c r="O30" s="60"/>
+      <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -45344,9 +45231,9 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="59"/>
+      <c r="O31" s="58"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -45360,9 +45247,9 @@
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
-      <c r="O32" s="60"/>
+      <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -45376,9 +45263,9 @@
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="59"/>
+      <c r="O33" s="58"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -45392,9 +45279,9 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
-      <c r="O34" s="60"/>
+      <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -45408,9 +45295,9 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="59"/>
+      <c r="O35" s="58"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -45424,9 +45311,9 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
-      <c r="O36" s="60"/>
+      <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -45440,9 +45327,9 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="59"/>
+      <c r="O37" s="58"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -45456,9 +45343,9 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="60"/>
+      <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -45472,9 +45359,9 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="59"/>
+      <c r="O39" s="58"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -45488,9 +45375,9 @@
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="60"/>
+      <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -45504,9 +45391,9 @@
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
-      <c r="O41" s="59"/>
+      <c r="O41" s="58"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -45520,9 +45407,9 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="60"/>
+      <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
+    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -45536,9 +45423,9 @@
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
-      <c r="O43" s="59"/>
+      <c r="O43" s="58"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
+    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -45552,9 +45439,9 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
-      <c r="O44" s="60"/>
+      <c r="O44" s="59"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -45568,9 +45455,9 @@
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
-      <c r="O45" s="59"/>
+      <c r="O45" s="58"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -45584,9 +45471,9 @@
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
-      <c r="O46" s="60"/>
+      <c r="O46" s="59"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
+    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -45600,9 +45487,9 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="59"/>
+      <c r="O47" s="58"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -45616,9 +45503,9 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="60"/>
+      <c r="O48" s="59"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
+    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -45632,9 +45519,9 @@
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="59"/>
+      <c r="O49" s="58"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
+    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -45648,9 +45535,9 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="60"/>
+      <c r="O50" s="59"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
+    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -45664,9 +45551,9 @@
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
-      <c r="O51" s="59"/>
+      <c r="O51" s="58"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
+    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -45680,9 +45567,9 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
-      <c r="O52" s="60"/>
+      <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
+    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -45696,9 +45583,9 @@
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="59"/>
+      <c r="O53" s="58"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
+    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -45712,9 +45599,9 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
-      <c r="O54" s="60"/>
+      <c r="O54" s="59"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
+    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -45728,9 +45615,9 @@
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="O55" s="59"/>
+      <c r="O55" s="58"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
+    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -45744,9 +45631,9 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
-      <c r="O56" s="60"/>
+      <c r="O56" s="59"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
+    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -45760,9 +45647,9 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="59"/>
+      <c r="O57" s="58"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
+    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -45776,9 +45663,9 @@
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="60"/>
+      <c r="O58" s="59"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
+    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -45792,9 +45679,9 @@
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
-      <c r="O59" s="59"/>
+      <c r="O59" s="58"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
+    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -45808,9 +45695,9 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="60"/>
+      <c r="O60" s="59"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
+    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -45824,9 +45711,9 @@
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
-      <c r="O61" s="59"/>
+      <c r="O61" s="58"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
+    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -45840,9 +45727,9 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
-      <c r="O62" s="60"/>
+      <c r="O62" s="59"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
+    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -45856,9 +45743,9 @@
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
-      <c r="O63" s="59"/>
+      <c r="O63" s="58"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
+    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -45872,9 +45759,9 @@
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
-      <c r="O64" s="60"/>
+      <c r="O64" s="59"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
+    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -45888,9 +45775,9 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
-      <c r="O65" s="59"/>
+      <c r="O65" s="58"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
+    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -45904,9 +45791,9 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
-      <c r="O66" s="60"/>
+      <c r="O66" s="59"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -45922,7 +45809,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O3:O5"/>
@@ -45937,1166 +45824,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
-&amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O68"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="57"/>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="61"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="61"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="60"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="59"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="60"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="59"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="B15" s="19"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="59"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
-      <c r="B21" s="19"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="59"/>
-    </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="59"/>
-    </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="60"/>
-    </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="59"/>
-    </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="60"/>
-    </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="59"/>
-    </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="60"/>
-    </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="59"/>
-    </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="60"/>
-    </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
-      <c r="B31" s="19"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="59"/>
-    </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="60"/>
-    </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
-      <c r="B33" s="19"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="59"/>
-    </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="60"/>
-    </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="59"/>
-    </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="60"/>
-    </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="59"/>
-    </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="60"/>
-    </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="59"/>
-    </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="19"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="60"/>
-    </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="59"/>
-    </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="59"/>
-    </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="19"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="60"/>
-    </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
-      <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="59"/>
-    </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="60"/>
-    </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
-      <c r="B47" s="19"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="59"/>
-    </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="60"/>
-    </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
-      <c r="B49" s="19"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="59"/>
-    </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
-      <c r="B50" s="19"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="60"/>
-    </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
-      <c r="B51" s="19"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="59"/>
-    </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="60"/>
-    </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
-      <c r="B53" s="19"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="59"/>
-    </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="60"/>
-    </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="59"/>
-    </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="60"/>
-    </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
-      <c r="B57" s="19"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="59"/>
-    </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="60"/>
-    </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
-      <c r="B59" s="19"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="59"/>
-    </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="60"/>
-    </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="59"/>
-    </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="60"/>
-    </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
-      <c r="B63" s="19"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="59"/>
-    </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="60"/>
-    </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="59"/>
-    </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="60"/>
-    </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="42"/>
-    </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\templateG\New folder\Temp_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="11" r:id="rId1"/>
+    <sheet name="マスタリスト (2)" sheetId="24" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -26,18 +26,29 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
+    <definedName name="_Parse_In" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
+    <definedName name="_Parse_Out" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
+    <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_" localSheetId="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
+    <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="1">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
+    <definedName name="a" localSheetId="1">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="AAA" localSheetId="1">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -45,128 +56,219 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守委託単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守支援単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="ｈｈｈ" localSheetId="1">#REF!</definedName>
     <definedName name="ｈｈｈ">#REF!</definedName>
     <definedName name="HW9707K">[3]仕切価格!$B$1:$BD$231</definedName>
+    <definedName name="ＩＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＩＨ">#REF!</definedName>
+    <definedName name="item1" localSheetId="1">#REF!</definedName>
     <definedName name="item1">#REF!</definedName>
+    <definedName name="Ｉホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｉホ">#REF!</definedName>
     <definedName name="k" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="kkkk" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="ＬＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
+    <definedName name="ＬサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
+    <definedName name="Ｌサホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌサホ">#REF!</definedName>
+    <definedName name="ＬニＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬニＨ">#REF!</definedName>
+    <definedName name="Ｌニホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌニホ">#REF!</definedName>
+    <definedName name="Ｌホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌホ">#REF!</definedName>
+    <definedName name="ＭＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
+    <definedName name="Ｍホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
+    <definedName name="ｎ" localSheetId="1">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ＯＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
+    <definedName name="OPT_NO" localSheetId="1">[5]!OPT_NO</definedName>
     <definedName name="OPT_NO">[5]!OPT_NO</definedName>
+    <definedName name="OPT_YES" localSheetId="1">[5]!OPT_YES</definedName>
     <definedName name="OPT_YES">[5]!OPT_YES</definedName>
+    <definedName name="Ｏホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
+    <definedName name="PG単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
+    <definedName name="PG田中" localSheetId="1">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'マスタリスト (2)'!$A$1:$P$67</definedName>
+    <definedName name="PrintDaicho" localSheetId="1">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
+    <definedName name="QuitDaicho" localSheetId="1">[7]!QuitDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
+    <definedName name="SE単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
+    <definedName name="sss" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
+    <definedName name="SS単価" localSheetId="1">#REF!</definedName>
     <definedName name="SS単価">#REF!</definedName>
+    <definedName name="STEP概算" localSheetId="1">#REF!</definedName>
     <definedName name="STEP概算">#REF!</definedName>
+    <definedName name="ＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＳＷ">#REF!</definedName>
+    <definedName name="Ver002001006特休残管理対応" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
+    <definedName name="ｗ" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="ｗ">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="WC単価">'[2]見積明細(ハードのみ）'!$X$5:$X$34</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.PRINT_ALL." hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="wrn.REPORT1." hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="あ" localSheetId="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
+    <definedName name="あ１" localSheetId="1">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="ああああああああああ" localSheetId="1">#REF!</definedName>
     <definedName name="ああああああああああ">#REF!</definedName>
+    <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
+    <definedName name="クＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クＨ">#REF!</definedName>
+    <definedName name="クサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クサＨ">#REF!</definedName>
+    <definedName name="クサホ" localSheetId="1">#REF!</definedName>
     <definedName name="クサホ">#REF!</definedName>
+    <definedName name="クにＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クにＨ">#REF!</definedName>
+    <definedName name="クニホ" localSheetId="1">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
+    <definedName name="クホ" localSheetId="1">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
+    <definedName name="サＨ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ1" localSheetId="1">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
+    <definedName name="ツール別見積工数" localSheetId="1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[9]項目定義書!$A$3:$E$364</definedName>
+    <definedName name="ハ１" localSheetId="1">#REF!</definedName>
     <definedName name="ハ１">#REF!</definedName>
+    <definedName name="は２" localSheetId="1">#REF!</definedName>
     <definedName name="は２">#REF!</definedName>
+    <definedName name="ハ２ホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハ２ホ">#REF!</definedName>
+    <definedName name="は３" localSheetId="1">#REF!</definedName>
     <definedName name="は３">#REF!</definedName>
+    <definedName name="ハサホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハサホ">#REF!</definedName>
+    <definedName name="ﾊﾞｽ･ﾀｸｼｰ" localSheetId="1">#REF!</definedName>
     <definedName name="ﾊﾞｽ･ﾀｸｼｰ">#REF!</definedName>
+    <definedName name="ハホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハホ">#REF!</definedName>
+    <definedName name="ヘッダー" localSheetId="1">#REF!</definedName>
     <definedName name="ヘッダー">#REF!</definedName>
+    <definedName name="ユーザー一覧" localSheetId="1">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
+    <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="1">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="価格表">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="機種SORT">[11]!機種SORT</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
-    <definedName name="銀行の登録48">#REF!</definedName>
-    <definedName name="銀行の登録67">#REF!</definedName>
-    <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="項目名の登録1">#REF!</definedName>
-    <definedName name="項目名の登録2">#REF!</definedName>
-    <definedName name="項目名の登録3">#REF!</definedName>
-    <definedName name="項目名の登録4">#REF!</definedName>
-    <definedName name="項目名の登録5">#REF!</definedName>
-    <definedName name="項目名の登録6">#REF!</definedName>
-    <definedName name="項目名の登録7">#REF!</definedName>
-    <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
     <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
     <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
+    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
     <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
     <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="住民税納付先の登録7">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="飛行機">#REF!</definedName>
-    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="価格表" localSheetId="1">#REF!</definedName>
+    <definedName name="価格表">#REF!</definedName>
+    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
     <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
     <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
+    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="単価" localSheetId="1">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="原価" localSheetId="1">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="売値" localSheetId="1">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
+    <definedName name="定価" localSheetId="1">#REF!</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
+    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="概要_基準日設定" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="機種SORT">[11]!機種SORT</definedName>
+    <definedName name="機能別原価" localSheetId="1">#REF!</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
+    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別" localSheetId="1">#REF!</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="銀行の登録48" localSheetId="1">#REF!</definedName>
+    <definedName name="銀行の登録48">#REF!</definedName>
+    <definedName name="銀行の登録67" localSheetId="1">#REF!</definedName>
+    <definedName name="銀行の登録67">#REF!</definedName>
+    <definedName name="銀行の登録7" localSheetId="1">#REF!</definedName>
+    <definedName name="銀行の登録7">#REF!</definedName>
+    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="電車" localSheetId="1">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="項目名の登録1" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録1">#REF!</definedName>
+    <definedName name="項目名の登録2" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録2">#REF!</definedName>
+    <definedName name="項目名の登録3" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録3">#REF!</definedName>
+    <definedName name="項目名の登録4" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録4">#REF!</definedName>
+    <definedName name="項目名の登録5" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録5">#REF!</definedName>
+    <definedName name="項目名の登録6" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録6">#REF!</definedName>
+    <definedName name="項目名の登録7" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録7">#REF!</definedName>
+    <definedName name="項目名の登録8" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="飛行機" localSheetId="1">#REF!</definedName>
+    <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -229,17 +331,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -267,7 +369,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -832,6 +934,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -870,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1040,13 +1151,16 @@
     <xf numFmtId="38" fontId="4" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="4" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44678,26 +44792,26 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
     <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.375" style="1"/>
+    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:15">
+      <c r="A1" s="57"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44711,8 +44825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -44727,57 +44840,57 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
       <c r="B3" s="19"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="60" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="69" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="60"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -44815,9 +44928,9 @@
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="60"/>
+      <c r="O5" s="61"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -44831,9 +44944,9 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
-      <c r="O6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -44847,9 +44960,9 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -44863,9 +44976,9 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="59"/>
+      <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -44879,9 +44992,9 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -44895,9 +45008,9 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="59"/>
+      <c r="O10" s="60"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -44911,9 +45024,9 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="58"/>
+      <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -44927,9 +45040,9 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="59"/>
+      <c r="O12" s="60"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -44943,9 +45056,9 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="58"/>
+      <c r="O13" s="59"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -44959,9 +45072,9 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="59"/>
+      <c r="O14" s="60"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -44975,9 +45088,9 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -44991,9 +45104,9 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="59"/>
+      <c r="O16" s="60"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" ht="18" customHeight="1">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -45007,9 +45120,9 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="58"/>
+      <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" ht="18" customHeight="1">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -45023,9 +45136,9 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="59"/>
+      <c r="O18" s="60"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" ht="18" customHeight="1">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -45039,9 +45152,9 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="59"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" ht="18" customHeight="1">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -45055,9 +45168,9 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="59"/>
+      <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" ht="18" customHeight="1">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -45071,9 +45184,9 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="59"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" ht="18" customHeight="1">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -45087,9 +45200,9 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="59"/>
+      <c r="O22" s="60"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" ht="18" customHeight="1">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -45103,9 +45216,9 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="58"/>
+      <c r="O23" s="59"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" ht="18" customHeight="1">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -45119,9 +45232,9 @@
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="59"/>
+      <c r="O24" s="60"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" ht="18" customHeight="1">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -45135,9 +45248,9 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="58"/>
+      <c r="O25" s="59"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" ht="18" customHeight="1">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -45151,9 +45264,9 @@
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
-      <c r="O26" s="59"/>
+      <c r="O26" s="60"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" ht="18" customHeight="1">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -45167,9 +45280,9 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
-      <c r="O27" s="58"/>
+      <c r="O27" s="59"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="18" customHeight="1">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -45183,9 +45296,9 @@
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
-      <c r="O28" s="59"/>
+      <c r="O28" s="60"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" ht="18" customHeight="1">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -45199,9 +45312,9 @@
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="58"/>
+      <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="18" customHeight="1">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -45215,9 +45328,9 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
-      <c r="O30" s="59"/>
+      <c r="O30" s="60"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="18" customHeight="1">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -45231,9 +45344,9 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="58"/>
+      <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="18" customHeight="1">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -45247,9 +45360,9 @@
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
-      <c r="O32" s="59"/>
+      <c r="O32" s="60"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" ht="18" customHeight="1">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -45263,9 +45376,9 @@
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="58"/>
+      <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" ht="18" customHeight="1">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -45279,9 +45392,9 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
-      <c r="O34" s="59"/>
+      <c r="O34" s="60"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" ht="18" customHeight="1">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -45295,9 +45408,9 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="58"/>
+      <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" ht="18" customHeight="1">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -45311,9 +45424,9 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
-      <c r="O36" s="59"/>
+      <c r="O36" s="60"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" ht="18" customHeight="1">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -45327,9 +45440,9 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="58"/>
+      <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" ht="18" customHeight="1">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -45343,9 +45456,9 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="59"/>
+      <c r="O38" s="60"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" ht="18" customHeight="1">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -45359,9 +45472,9 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="58"/>
+      <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" ht="18" customHeight="1">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -45375,9 +45488,9 @@
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="59"/>
+      <c r="O40" s="60"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" ht="18" customHeight="1">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -45391,9 +45504,9 @@
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
-      <c r="O41" s="58"/>
+      <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" ht="18" customHeight="1">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -45407,9 +45520,9 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="59"/>
+      <c r="O42" s="60"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" ht="18" customHeight="1">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -45423,9 +45536,9 @@
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
-      <c r="O43" s="58"/>
+      <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" ht="18" customHeight="1">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -45439,9 +45552,9 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
-      <c r="O44" s="59"/>
+      <c r="O44" s="60"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" ht="18" customHeight="1">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -45455,9 +45568,9 @@
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
-      <c r="O45" s="58"/>
+      <c r="O45" s="59"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" ht="18" customHeight="1">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -45471,9 +45584,9 @@
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
-      <c r="O46" s="59"/>
+      <c r="O46" s="60"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" ht="18" customHeight="1">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -45487,9 +45600,9 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="58"/>
+      <c r="O47" s="59"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" ht="18" customHeight="1">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -45503,9 +45616,9 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="59"/>
+      <c r="O48" s="60"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" ht="18" customHeight="1">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -45519,9 +45632,9 @@
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="58"/>
+      <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" ht="18" customHeight="1">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -45535,9 +45648,9 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="59"/>
+      <c r="O50" s="60"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" ht="18" customHeight="1">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -45551,9 +45664,9 @@
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
-      <c r="O51" s="58"/>
+      <c r="O51" s="59"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" ht="18" customHeight="1">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -45567,9 +45680,9 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
-      <c r="O52" s="59"/>
+      <c r="O52" s="60"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" ht="18" customHeight="1">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -45583,9 +45696,9 @@
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="58"/>
+      <c r="O53" s="59"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" ht="18" customHeight="1">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -45599,9 +45712,9 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
-      <c r="O54" s="59"/>
+      <c r="O54" s="60"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" ht="18" customHeight="1">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -45615,9 +45728,9 @@
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="O55" s="58"/>
+      <c r="O55" s="59"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" ht="18" customHeight="1">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -45631,9 +45744,9 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
-      <c r="O56" s="59"/>
+      <c r="O56" s="60"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" ht="18" customHeight="1">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -45647,9 +45760,9 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="58"/>
+      <c r="O57" s="59"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" ht="18" customHeight="1">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -45663,9 +45776,9 @@
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="59"/>
+      <c r="O58" s="60"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" ht="18" customHeight="1">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -45679,9 +45792,9 @@
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
-      <c r="O59" s="58"/>
+      <c r="O59" s="59"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" ht="18" customHeight="1">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -45695,9 +45808,9 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="59"/>
+      <c r="O60" s="60"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" ht="18" customHeight="1">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -45711,9 +45824,9 @@
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
-      <c r="O61" s="58"/>
+      <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" ht="18" customHeight="1">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -45727,9 +45840,9 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
-      <c r="O62" s="59"/>
+      <c r="O62" s="60"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" ht="18" customHeight="1">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -45743,9 +45856,9 @@
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
-      <c r="O63" s="58"/>
+      <c r="O63" s="59"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" ht="18" customHeight="1">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -45759,9 +45872,9 @@
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
-      <c r="O64" s="59"/>
+      <c r="O64" s="60"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" ht="18" customHeight="1">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -45775,9 +45888,9 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
-      <c r="O65" s="58"/>
+      <c r="O65" s="59"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" ht="18" customHeight="1">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -45791,9 +45904,9 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
-      <c r="O66" s="59"/>
+      <c r="O66" s="60"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -45809,7 +45922,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O3:O5"/>
@@ -45824,7 +45937,1166 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="43" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
+&amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="57"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1">
+      <c r="B4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="73"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="58"/>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="59"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="60"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="59"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="60"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="60"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="60"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="59"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="2:15" ht="18" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="59"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" customHeight="1">
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="60"/>
+    </row>
+    <row r="21" spans="2:15" ht="18" customHeight="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="59"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="2:15" ht="18" customHeight="1">
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="59"/>
+    </row>
+    <row r="24" spans="2:15" ht="18" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="60"/>
+    </row>
+    <row r="25" spans="2:15" ht="18" customHeight="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="59"/>
+    </row>
+    <row r="26" spans="2:15" ht="18" customHeight="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="60"/>
+    </row>
+    <row r="27" spans="2:15" ht="18" customHeight="1">
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="59"/>
+    </row>
+    <row r="28" spans="2:15" ht="18" customHeight="1">
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="60"/>
+    </row>
+    <row r="29" spans="2:15" ht="18" customHeight="1">
+      <c r="B29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="59"/>
+    </row>
+    <row r="30" spans="2:15" ht="18" customHeight="1">
+      <c r="B30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="60"/>
+    </row>
+    <row r="31" spans="2:15" ht="18" customHeight="1">
+      <c r="B31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="59"/>
+    </row>
+    <row r="32" spans="2:15" ht="18" customHeight="1">
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="60"/>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1">
+      <c r="B33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="59"/>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1">
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="60"/>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1">
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="59"/>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1">
+      <c r="B36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="60"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1">
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="59"/>
+    </row>
+    <row r="38" spans="2:15" ht="18" customHeight="1">
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="60"/>
+    </row>
+    <row r="39" spans="2:15" ht="18" customHeight="1">
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="59"/>
+    </row>
+    <row r="40" spans="2:15" ht="18" customHeight="1">
+      <c r="B40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="60"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" customHeight="1">
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="59"/>
+    </row>
+    <row r="42" spans="2:15" ht="18" customHeight="1">
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="60"/>
+    </row>
+    <row r="43" spans="2:15" ht="18" customHeight="1">
+      <c r="B43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="59"/>
+    </row>
+    <row r="44" spans="2:15" ht="18" customHeight="1">
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="60"/>
+    </row>
+    <row r="45" spans="2:15" ht="18" customHeight="1">
+      <c r="B45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="59"/>
+    </row>
+    <row r="46" spans="2:15" ht="18" customHeight="1">
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="60"/>
+    </row>
+    <row r="47" spans="2:15" ht="18" customHeight="1">
+      <c r="B47" s="19"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="59"/>
+    </row>
+    <row r="48" spans="2:15" ht="18" customHeight="1">
+      <c r="B48" s="19"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="60"/>
+    </row>
+    <row r="49" spans="2:15" ht="18" customHeight="1">
+      <c r="B49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="59"/>
+    </row>
+    <row r="50" spans="2:15" ht="18" customHeight="1">
+      <c r="B50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="60"/>
+    </row>
+    <row r="51" spans="2:15" ht="18" customHeight="1">
+      <c r="B51" s="19"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="59"/>
+    </row>
+    <row r="52" spans="2:15" ht="18" customHeight="1">
+      <c r="B52" s="19"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="60"/>
+    </row>
+    <row r="53" spans="2:15" ht="18" customHeight="1">
+      <c r="B53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="59"/>
+    </row>
+    <row r="54" spans="2:15" ht="18" customHeight="1">
+      <c r="B54" s="19"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="60"/>
+    </row>
+    <row r="55" spans="2:15" ht="18" customHeight="1">
+      <c r="B55" s="19"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="59"/>
+    </row>
+    <row r="56" spans="2:15" ht="18" customHeight="1">
+      <c r="B56" s="19"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="60"/>
+    </row>
+    <row r="57" spans="2:15" ht="18" customHeight="1">
+      <c r="B57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="59"/>
+    </row>
+    <row r="58" spans="2:15" ht="18" customHeight="1">
+      <c r="B58" s="19"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="60"/>
+    </row>
+    <row r="59" spans="2:15" ht="18" customHeight="1">
+      <c r="B59" s="19"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="59"/>
+    </row>
+    <row r="60" spans="2:15" ht="18" customHeight="1">
+      <c r="B60" s="19"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="60"/>
+    </row>
+    <row r="61" spans="2:15" ht="18" customHeight="1">
+      <c r="B61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="59"/>
+    </row>
+    <row r="62" spans="2:15" ht="18" customHeight="1">
+      <c r="B62" s="19"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="60"/>
+    </row>
+    <row r="63" spans="2:15" ht="18" customHeight="1">
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="59"/>
+    </row>
+    <row r="64" spans="2:15" ht="18" customHeight="1">
+      <c r="B64" s="19"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="60"/>
+    </row>
+    <row r="65" spans="2:15" ht="18" customHeight="1">
+      <c r="B65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="59"/>
+    </row>
+    <row r="66" spans="2:15" ht="18" customHeight="1">
+      <c r="B66" s="19"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="60"/>
+    </row>
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B67" s="19"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="42"/>
+    </row>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\templateG\New folder\Temp_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="11" r:id="rId1"/>
-    <sheet name="マスタリスト (2)" sheetId="24" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -26,29 +26,18 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_Key1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
-    <definedName name="_Parse_In" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
-    <definedName name="_Parse_Out" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="_Sort" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_" localSheetId="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
-    <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="1">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="1">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="AAA" localSheetId="1">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -56,219 +45,128 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守委託単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守支援単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="ｈｈｈ" localSheetId="1">#REF!</definedName>
     <definedName name="ｈｈｈ">#REF!</definedName>
     <definedName name="HW9707K">[3]仕切価格!$B$1:$BD$231</definedName>
-    <definedName name="ＩＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＩＨ">#REF!</definedName>
-    <definedName name="item1" localSheetId="1">#REF!</definedName>
     <definedName name="item1">#REF!</definedName>
-    <definedName name="Ｉホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｉホ">#REF!</definedName>
     <definedName name="k" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="kkkk" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="ＬＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
-    <definedName name="ＬサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
-    <definedName name="Ｌサホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌサホ">#REF!</definedName>
-    <definedName name="ＬニＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬニＨ">#REF!</definedName>
-    <definedName name="Ｌニホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌニホ">#REF!</definedName>
-    <definedName name="Ｌホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌホ">#REF!</definedName>
-    <definedName name="ＭＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
-    <definedName name="Ｍホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="1">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ＯＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
-    <definedName name="OPT_NO" localSheetId="1">[5]!OPT_NO</definedName>
     <definedName name="OPT_NO">[5]!OPT_NO</definedName>
-    <definedName name="OPT_YES" localSheetId="1">[5]!OPT_YES</definedName>
     <definedName name="OPT_YES">[5]!OPT_YES</definedName>
-    <definedName name="Ｏホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
-    <definedName name="PG単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
-    <definedName name="PG田中" localSheetId="1">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'マスタリスト (2)'!$A$1:$P$67</definedName>
-    <definedName name="PrintDaicho" localSheetId="1">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
-    <definedName name="QuitDaicho" localSheetId="1">[7]!QuitDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
-    <definedName name="SE単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
-    <definedName name="sss" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
-    <definedName name="SS単価" localSheetId="1">#REF!</definedName>
     <definedName name="SS単価">#REF!</definedName>
-    <definedName name="STEP概算" localSheetId="1">#REF!</definedName>
     <definedName name="STEP概算">#REF!</definedName>
-    <definedName name="ＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＳＷ">#REF!</definedName>
-    <definedName name="Ver002001006特休残管理対応" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
-    <definedName name="ｗ" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="ｗ">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="WC単価">'[2]見積明細(ハードのみ）'!$X$5:$X$34</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.PRINT_ALL." hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="wrn.REPORT1." hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="あ" localSheetId="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
-    <definedName name="あ１" localSheetId="1">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="ああああああああああ" localSheetId="1">#REF!</definedName>
     <definedName name="ああああああああああ">#REF!</definedName>
-    <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
-    <definedName name="クＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クＨ">#REF!</definedName>
-    <definedName name="クサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クサＨ">#REF!</definedName>
-    <definedName name="クサホ" localSheetId="1">#REF!</definedName>
     <definedName name="クサホ">#REF!</definedName>
-    <definedName name="クにＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クにＨ">#REF!</definedName>
-    <definedName name="クニホ" localSheetId="1">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
-    <definedName name="クホ" localSheetId="1">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ1" localSheetId="1">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
-    <definedName name="ツール別見積工数" localSheetId="1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[9]項目定義書!$A$3:$E$364</definedName>
-    <definedName name="ハ１" localSheetId="1">#REF!</definedName>
     <definedName name="ハ１">#REF!</definedName>
-    <definedName name="は２" localSheetId="1">#REF!</definedName>
     <definedName name="は２">#REF!</definedName>
-    <definedName name="ハ２ホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハ２ホ">#REF!</definedName>
-    <definedName name="は３" localSheetId="1">#REF!</definedName>
     <definedName name="は３">#REF!</definedName>
-    <definedName name="ハサホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハサホ">#REF!</definedName>
-    <definedName name="ﾊﾞｽ･ﾀｸｼｰ" localSheetId="1">#REF!</definedName>
     <definedName name="ﾊﾞｽ･ﾀｸｼｰ">#REF!</definedName>
-    <definedName name="ハホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハホ">#REF!</definedName>
-    <definedName name="ヘッダー" localSheetId="1">#REF!</definedName>
     <definedName name="ヘッダー">#REF!</definedName>
-    <definedName name="ユーザー一覧" localSheetId="1">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
-    <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="1">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="価格表">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="機種SORT">[11]!機種SORT</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
+    <definedName name="銀行の登録48">#REF!</definedName>
+    <definedName name="銀行の登録67">#REF!</definedName>
+    <definedName name="銀行の登録7">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
+    <definedName name="項目名の登録1">#REF!</definedName>
+    <definedName name="項目名の登録2">#REF!</definedName>
+    <definedName name="項目名の登録3">#REF!</definedName>
+    <definedName name="項目名の登録4">#REF!</definedName>
+    <definedName name="項目名の登録5">#REF!</definedName>
+    <definedName name="項目名の登録6">#REF!</definedName>
+    <definedName name="項目名の登録7">#REF!</definedName>
+    <definedName name="項目名の登録8">#REF!</definedName>
     <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
     <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
+    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
     <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
     <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="住民税納付先の登録7">#REF!</definedName>
-    <definedName name="価格表" localSheetId="1">#REF!</definedName>
-    <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
+    <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
     <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
     <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価" localSheetId="1">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="原価" localSheetId="1">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値" localSheetId="1">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価" localSheetId="1">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="機種SORT">[11]!機種SORT</definedName>
-    <definedName name="機能別原価" localSheetId="1">#REF!</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
-    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別" localSheetId="1">#REF!</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
-    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
-    <definedName name="銀行の登録48" localSheetId="1">#REF!</definedName>
-    <definedName name="銀行の登録48">#REF!</definedName>
-    <definedName name="銀行の登録67" localSheetId="1">#REF!</definedName>
-    <definedName name="銀行の登録67">#REF!</definedName>
-    <definedName name="銀行の登録7" localSheetId="1">#REF!</definedName>
-    <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車" localSheetId="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
-    <definedName name="項目名の登録1" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録1">#REF!</definedName>
-    <definedName name="項目名の登録2" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録2">#REF!</definedName>
-    <definedName name="項目名の登録3" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録3">#REF!</definedName>
-    <definedName name="項目名の登録4" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録4">#REF!</definedName>
-    <definedName name="項目名の登録5" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録5">#REF!</definedName>
-    <definedName name="項目名の登録6" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録6">#REF!</definedName>
-    <definedName name="項目名の登録7" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録7">#REF!</definedName>
-    <definedName name="項目名の登録8" localSheetId="1">#REF!</definedName>
-    <definedName name="項目名の登録8">#REF!</definedName>
-    <definedName name="飛行機" localSheetId="1">#REF!</definedName>
-    <definedName name="飛行機">#REF!</definedName>
+    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -331,17 +229,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -369,7 +267,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -934,15 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -981,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1151,16 +1040,13 @@
     <xf numFmtId="38" fontId="4" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="4" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44792,26 +44678,26 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="1" customWidth="1"/>
     <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
+    <col min="15" max="15" width="25.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="57"/>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44825,7 +44711,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -44840,57 +44727,58 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="61" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="60" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="61"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -44928,9 +44816,9 @@
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="61"/>
+      <c r="O5" s="60"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -44944,9 +44832,9 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="57"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -44960,9 +44848,9 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="59"/>
+      <c r="O7" s="58"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -44976,9 +44864,9 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="60"/>
+      <c r="O8" s="59"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -44992,9 +44880,9 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="59"/>
+      <c r="O9" s="58"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -45008,9 +44896,9 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="60"/>
+      <c r="O10" s="59"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -45024,9 +44912,9 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="59"/>
+      <c r="O11" s="58"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -45040,9 +44928,9 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="60"/>
+      <c r="O12" s="59"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -45056,9 +44944,9 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="59"/>
+      <c r="O13" s="58"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -45072,9 +44960,9 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="60"/>
+      <c r="O14" s="59"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -45088,9 +44976,9 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="59"/>
+      <c r="O15" s="58"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -45104,9 +44992,9 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="60"/>
+      <c r="O16" s="59"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -45120,9 +45008,9 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="59"/>
+      <c r="O17" s="58"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -45136,9 +45024,9 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="60"/>
+      <c r="O18" s="59"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -45152,9 +45040,9 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="59"/>
+      <c r="O19" s="58"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
+    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -45168,9 +45056,9 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="60"/>
+      <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -45184,9 +45072,9 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="59"/>
+      <c r="O21" s="58"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -45200,9 +45088,9 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="60"/>
+      <c r="O22" s="59"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
+    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -45216,9 +45104,9 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="59"/>
+      <c r="O23" s="58"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
+    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -45232,9 +45120,9 @@
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="60"/>
+      <c r="O24" s="59"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -45248,9 +45136,9 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="59"/>
+      <c r="O25" s="58"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -45264,9 +45152,9 @@
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
-      <c r="O26" s="60"/>
+      <c r="O26" s="59"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
+    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -45280,9 +45168,9 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
-      <c r="O27" s="59"/>
+      <c r="O27" s="58"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -45296,9 +45184,9 @@
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
-      <c r="O28" s="60"/>
+      <c r="O28" s="59"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
+    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -45312,9 +45200,9 @@
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="59"/>
+      <c r="O29" s="58"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -45328,9 +45216,9 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
-      <c r="O30" s="60"/>
+      <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -45344,9 +45232,9 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="59"/>
+      <c r="O31" s="58"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -45360,9 +45248,9 @@
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
-      <c r="O32" s="60"/>
+      <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -45376,9 +45264,9 @@
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="59"/>
+      <c r="O33" s="58"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -45392,9 +45280,9 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
-      <c r="O34" s="60"/>
+      <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -45408,9 +45296,9 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="59"/>
+      <c r="O35" s="58"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -45424,9 +45312,9 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
-      <c r="O36" s="60"/>
+      <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -45440,9 +45328,9 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="59"/>
+      <c r="O37" s="58"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -45456,9 +45344,9 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="60"/>
+      <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -45472,9 +45360,9 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="59"/>
+      <c r="O39" s="58"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -45488,9 +45376,9 @@
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="60"/>
+      <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -45504,9 +45392,9 @@
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
-      <c r="O41" s="59"/>
+      <c r="O41" s="58"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -45520,9 +45408,9 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="60"/>
+      <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
+    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -45536,9 +45424,9 @@
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
-      <c r="O43" s="59"/>
+      <c r="O43" s="58"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
+    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -45552,9 +45440,9 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
-      <c r="O44" s="60"/>
+      <c r="O44" s="59"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -45568,9 +45456,9 @@
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
-      <c r="O45" s="59"/>
+      <c r="O45" s="58"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -45584,9 +45472,9 @@
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
-      <c r="O46" s="60"/>
+      <c r="O46" s="59"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
+    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -45600,9 +45488,9 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="59"/>
+      <c r="O47" s="58"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -45616,9 +45504,9 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="60"/>
+      <c r="O48" s="59"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
+    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -45632,9 +45520,9 @@
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="59"/>
+      <c r="O49" s="58"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
+    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -45648,9 +45536,9 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="60"/>
+      <c r="O50" s="59"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
+    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -45664,9 +45552,9 @@
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
-      <c r="O51" s="59"/>
+      <c r="O51" s="58"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
+    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -45680,9 +45568,9 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
-      <c r="O52" s="60"/>
+      <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
+    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -45696,9 +45584,9 @@
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="59"/>
+      <c r="O53" s="58"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
+    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -45712,9 +45600,9 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
-      <c r="O54" s="60"/>
+      <c r="O54" s="59"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
+    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -45728,9 +45616,9 @@
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="O55" s="59"/>
+      <c r="O55" s="58"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
+    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -45744,9 +45632,9 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
-      <c r="O56" s="60"/>
+      <c r="O56" s="59"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
+    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -45760,9 +45648,9 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="59"/>
+      <c r="O57" s="58"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
+    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -45776,9 +45664,9 @@
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="60"/>
+      <c r="O58" s="59"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
+    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -45792,9 +45680,9 @@
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
-      <c r="O59" s="59"/>
+      <c r="O59" s="58"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
+    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -45808,9 +45696,9 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="60"/>
+      <c r="O60" s="59"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
+    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -45824,9 +45712,9 @@
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
-      <c r="O61" s="59"/>
+      <c r="O61" s="58"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
+    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -45840,9 +45728,9 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
-      <c r="O62" s="60"/>
+      <c r="O62" s="59"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
+    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -45856,9 +45744,9 @@
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
-      <c r="O63" s="59"/>
+      <c r="O63" s="58"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
+    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -45872,9 +45760,9 @@
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
-      <c r="O64" s="60"/>
+      <c r="O64" s="59"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
+    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -45888,9 +45776,9 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
-      <c r="O65" s="59"/>
+      <c r="O65" s="58"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
+    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -45904,9 +45792,9 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
-      <c r="O66" s="60"/>
+      <c r="O66" s="59"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -45922,7 +45810,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O3:O5"/>
@@ -45943,1163 +45831,4 @@
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O68"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="57"/>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="61"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="61"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="60"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="59"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="60"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="59"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="B15" s="19"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="59"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
-      <c r="B21" s="19"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="59"/>
-    </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="59"/>
-    </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="60"/>
-    </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="59"/>
-    </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="60"/>
-    </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="59"/>
-    </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="60"/>
-    </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="59"/>
-    </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="60"/>
-    </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
-      <c r="B31" s="19"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="59"/>
-    </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="60"/>
-    </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
-      <c r="B33" s="19"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="59"/>
-    </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="60"/>
-    </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="59"/>
-    </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="60"/>
-    </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="59"/>
-    </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="60"/>
-    </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="59"/>
-    </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="19"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="60"/>
-    </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="59"/>
-    </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="59"/>
-    </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="19"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="60"/>
-    </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
-      <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="59"/>
-    </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="60"/>
-    </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
-      <c r="B47" s="19"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="59"/>
-    </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="60"/>
-    </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
-      <c r="B49" s="19"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="59"/>
-    </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
-      <c r="B50" s="19"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="60"/>
-    </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
-      <c r="B51" s="19"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="59"/>
-    </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="60"/>
-    </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
-      <c r="B53" s="19"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="59"/>
-    </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="60"/>
-    </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="59"/>
-    </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="60"/>
-    </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
-      <c r="B57" s="19"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="59"/>
-    </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="60"/>
-    </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
-      <c r="B59" s="19"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="59"/>
-    </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="60"/>
-    </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="59"/>
-    </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="60"/>
-    </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
-      <c r="B63" s="19"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="59"/>
-    </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="60"/>
-    </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="59"/>
-    </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="60"/>
-    </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="42"/>
-    </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
-&amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
-  </headerFooter>
-</worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\templateG\New folder\Temp_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="11" r:id="rId1"/>
+    <sheet name="マスタリスト (2)" sheetId="24" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -26,18 +26,29 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Key1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
+    <definedName name="_Parse_In" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
+    <definedName name="_Parse_Out" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
+    <definedName name="_Sort" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
+    <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_" localSheetId="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
+    <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="1">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
+    <definedName name="a" localSheetId="1">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="AAA" localSheetId="1">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -45,128 +56,219 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守委託単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守支援単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="ｈｈｈ" localSheetId="1">#REF!</definedName>
     <definedName name="ｈｈｈ">#REF!</definedName>
     <definedName name="HW9707K">[3]仕切価格!$B$1:$BD$231</definedName>
+    <definedName name="ＩＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＩＨ">#REF!</definedName>
+    <definedName name="item1" localSheetId="1">#REF!</definedName>
     <definedName name="item1">#REF!</definedName>
+    <definedName name="Ｉホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｉホ">#REF!</definedName>
     <definedName name="k" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="kkkk" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
+    <definedName name="ＬＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
+    <definedName name="ＬサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
+    <definedName name="Ｌサホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌサホ">#REF!</definedName>
+    <definedName name="ＬニＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬニＨ">#REF!</definedName>
+    <definedName name="Ｌニホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌニホ">#REF!</definedName>
+    <definedName name="Ｌホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌホ">#REF!</definedName>
+    <definedName name="ＭＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
+    <definedName name="Ｍホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
+    <definedName name="ｎ" localSheetId="1">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="ＯＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
+    <definedName name="OPT_NO" localSheetId="1">[5]!OPT_NO</definedName>
     <definedName name="OPT_NO">[5]!OPT_NO</definedName>
+    <definedName name="OPT_YES" localSheetId="1">[5]!OPT_YES</definedName>
     <definedName name="OPT_YES">[5]!OPT_YES</definedName>
+    <definedName name="Ｏホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
+    <definedName name="PG単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
+    <definedName name="PG田中" localSheetId="1">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'マスタリスト (2)'!$A$1:$P$67</definedName>
+    <definedName name="PrintDaicho" localSheetId="1">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
+    <definedName name="QuitDaicho" localSheetId="1">[7]!QuitDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
+    <definedName name="SE単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
+    <definedName name="sss" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
+    <definedName name="SS単価" localSheetId="1">#REF!</definedName>
     <definedName name="SS単価">#REF!</definedName>
+    <definedName name="STEP概算" localSheetId="1">#REF!</definedName>
     <definedName name="STEP概算">#REF!</definedName>
+    <definedName name="ＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＳＷ">#REF!</definedName>
+    <definedName name="Ver002001006特休残管理対応" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
+    <definedName name="ｗ" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="ｗ">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="WC単価">'[2]見積明細(ハードのみ）'!$X$5:$X$34</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.PRINT_ALL." hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="wrn.REPORT1." hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
+    <definedName name="あ" localSheetId="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
+    <definedName name="あ１" localSheetId="1">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
+    <definedName name="ああああああああああ" localSheetId="1">#REF!</definedName>
     <definedName name="ああああああああああ">#REF!</definedName>
+    <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
+    <definedName name="クＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クＨ">#REF!</definedName>
+    <definedName name="クサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クサＨ">#REF!</definedName>
+    <definedName name="クサホ" localSheetId="1">#REF!</definedName>
     <definedName name="クサホ">#REF!</definedName>
+    <definedName name="クにＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クにＨ">#REF!</definedName>
+    <definedName name="クニホ" localSheetId="1">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
+    <definedName name="クホ" localSheetId="1">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
+    <definedName name="サＨ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
+    <definedName name="サホ1" localSheetId="1">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
+    <definedName name="ツール別見積工数" localSheetId="1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[9]項目定義書!$A$3:$E$364</definedName>
+    <definedName name="ハ１" localSheetId="1">#REF!</definedName>
     <definedName name="ハ１">#REF!</definedName>
+    <definedName name="は２" localSheetId="1">#REF!</definedName>
     <definedName name="は２">#REF!</definedName>
+    <definedName name="ハ２ホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハ２ホ">#REF!</definedName>
+    <definedName name="は３" localSheetId="1">#REF!</definedName>
     <definedName name="は３">#REF!</definedName>
+    <definedName name="ハサホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハサホ">#REF!</definedName>
+    <definedName name="ﾊﾞｽ･ﾀｸｼｰ" localSheetId="1">#REF!</definedName>
     <definedName name="ﾊﾞｽ･ﾀｸｼｰ">#REF!</definedName>
+    <definedName name="ハホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハホ">#REF!</definedName>
+    <definedName name="ヘッダー" localSheetId="1">#REF!</definedName>
     <definedName name="ヘッダー">#REF!</definedName>
+    <definedName name="ユーザー一覧" localSheetId="1">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
+    <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="1">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="価格表">#REF!</definedName>
-    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="機種SORT">[11]!機種SORT</definedName>
-    <definedName name="機能別原価">#REF!</definedName>
-    <definedName name="銀行の登録48">#REF!</definedName>
-    <definedName name="銀行の登録67">#REF!</definedName>
-    <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="項目名の登録1">#REF!</definedName>
-    <definedName name="項目名の登録2">#REF!</definedName>
-    <definedName name="項目名の登録3">#REF!</definedName>
-    <definedName name="項目名の登録4">#REF!</definedName>
-    <definedName name="項目名の登録5">#REF!</definedName>
-    <definedName name="項目名の登録6">#REF!</definedName>
-    <definedName name="項目名の登録7">#REF!</definedName>
-    <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
     <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
     <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
+    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
     <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
     <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="住民税納付先の登録7">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="飛行機">#REF!</definedName>
-    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
-    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="価格表" localSheetId="1">#REF!</definedName>
+    <definedName name="価格表">#REF!</definedName>
+    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
     <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
     <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
+    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="単価" localSheetId="1">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="原価" localSheetId="1">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="売値" localSheetId="1">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
+    <definedName name="定価" localSheetId="1">#REF!</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
+    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="概要_基準日設定" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
+    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="機種SORT">[11]!機種SORT</definedName>
+    <definedName name="機能別原価" localSheetId="1">#REF!</definedName>
+    <definedName name="機能別原価">#REF!</definedName>
+    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別" localSheetId="1">#REF!</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="銀行の登録48" localSheetId="1">#REF!</definedName>
+    <definedName name="銀行の登録48">#REF!</definedName>
+    <definedName name="銀行の登録67" localSheetId="1">#REF!</definedName>
+    <definedName name="銀行の登録67">#REF!</definedName>
+    <definedName name="銀行の登録7" localSheetId="1">#REF!</definedName>
+    <definedName name="銀行の登録7">#REF!</definedName>
+    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
+    <definedName name="電車" localSheetId="1">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="項目名の登録1" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録1">#REF!</definedName>
+    <definedName name="項目名の登録2" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録2">#REF!</definedName>
+    <definedName name="項目名の登録3" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録3">#REF!</definedName>
+    <definedName name="項目名の登録4" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録4">#REF!</definedName>
+    <definedName name="項目名の登録5" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録5">#REF!</definedName>
+    <definedName name="項目名の登録6" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録6">#REF!</definedName>
+    <definedName name="項目名の登録7" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録7">#REF!</definedName>
+    <definedName name="項目名の登録8" localSheetId="1">#REF!</definedName>
+    <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="飛行機" localSheetId="1">#REF!</definedName>
+    <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -229,17 +331,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -267,7 +369,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -307,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -832,6 +934,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -870,7 +981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1040,13 +1151,16 @@
     <xf numFmtId="38" fontId="4" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="4" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44678,26 +44792,26 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
     <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.375" style="1"/>
+    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:15">
+      <c r="A1" s="57"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44711,8 +44825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -44727,58 +44840,57 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
       <c r="B3" s="19"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="65" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="60" t="s">
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="61" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="18" customHeight="1">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="69" t="s">
+      <c r="J4" s="73"/>
+      <c r="K4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71" t="s">
+      <c r="L4" s="71"/>
+      <c r="M4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="72"/>
-      <c r="O4" s="60"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -44816,9 +44928,9 @@
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="60"/>
+      <c r="O5" s="61"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -44832,9 +44944,9 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
-      <c r="O6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -44848,9 +44960,9 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="58"/>
+      <c r="O7" s="59"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -44864,9 +44976,9 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="59"/>
+      <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -44880,9 +44992,9 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -44896,9 +45008,9 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="59"/>
+      <c r="O10" s="60"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -44912,9 +45024,9 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="58"/>
+      <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -44928,9 +45040,9 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="59"/>
+      <c r="O12" s="60"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -44944,9 +45056,9 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="58"/>
+      <c r="O13" s="59"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -44960,9 +45072,9 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="59"/>
+      <c r="O14" s="60"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -44976,9 +45088,9 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -44992,9 +45104,9 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="59"/>
+      <c r="O16" s="60"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" ht="18" customHeight="1">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -45008,9 +45120,9 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="58"/>
+      <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" ht="18" customHeight="1">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -45024,9 +45136,9 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="59"/>
+      <c r="O18" s="60"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" ht="18" customHeight="1">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -45040,9 +45152,9 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="58"/>
+      <c r="O19" s="59"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" ht="18" customHeight="1">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -45056,9 +45168,9 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="59"/>
+      <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" ht="18" customHeight="1">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -45072,9 +45184,9 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="58"/>
+      <c r="O21" s="59"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" ht="18" customHeight="1">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -45088,9 +45200,9 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="59"/>
+      <c r="O22" s="60"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" ht="18" customHeight="1">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -45104,9 +45216,9 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="58"/>
+      <c r="O23" s="59"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" ht="18" customHeight="1">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -45120,9 +45232,9 @@
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="59"/>
+      <c r="O24" s="60"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" ht="18" customHeight="1">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -45136,9 +45248,9 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="58"/>
+      <c r="O25" s="59"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" ht="18" customHeight="1">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -45152,9 +45264,9 @@
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
-      <c r="O26" s="59"/>
+      <c r="O26" s="60"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" ht="18" customHeight="1">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -45168,9 +45280,9 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
-      <c r="O27" s="58"/>
+      <c r="O27" s="59"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="18" customHeight="1">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -45184,9 +45296,9 @@
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
-      <c r="O28" s="59"/>
+      <c r="O28" s="60"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" ht="18" customHeight="1">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -45200,9 +45312,9 @@
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="58"/>
+      <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="18" customHeight="1">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -45216,9 +45328,9 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
-      <c r="O30" s="59"/>
+      <c r="O30" s="60"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="18" customHeight="1">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -45232,9 +45344,9 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="58"/>
+      <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="18" customHeight="1">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -45248,9 +45360,9 @@
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
-      <c r="O32" s="59"/>
+      <c r="O32" s="60"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:15" ht="18" customHeight="1">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -45264,9 +45376,9 @@
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="58"/>
+      <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:15" ht="18" customHeight="1">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -45280,9 +45392,9 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
-      <c r="O34" s="59"/>
+      <c r="O34" s="60"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:15" ht="18" customHeight="1">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -45296,9 +45408,9 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="58"/>
+      <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" ht="18" customHeight="1">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -45312,9 +45424,9 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
-      <c r="O36" s="59"/>
+      <c r="O36" s="60"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:15" ht="18" customHeight="1">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -45328,9 +45440,9 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="58"/>
+      <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:15" ht="18" customHeight="1">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -45344,9 +45456,9 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="59"/>
+      <c r="O38" s="60"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:15" ht="18" customHeight="1">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -45360,9 +45472,9 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="58"/>
+      <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:15" ht="18" customHeight="1">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -45376,9 +45488,9 @@
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="59"/>
+      <c r="O40" s="60"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" ht="18" customHeight="1">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -45392,9 +45504,9 @@
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
-      <c r="O41" s="58"/>
+      <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" ht="18" customHeight="1">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -45408,9 +45520,9 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="59"/>
+      <c r="O42" s="60"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:15" ht="18" customHeight="1">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -45424,9 +45536,9 @@
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
-      <c r="O43" s="58"/>
+      <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:15" ht="18" customHeight="1">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -45440,9 +45552,9 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
-      <c r="O44" s="59"/>
+      <c r="O44" s="60"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" ht="18" customHeight="1">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -45456,9 +45568,9 @@
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
-      <c r="O45" s="58"/>
+      <c r="O45" s="59"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:15" ht="18" customHeight="1">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -45472,9 +45584,9 @@
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
-      <c r="O46" s="59"/>
+      <c r="O46" s="60"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:15" ht="18" customHeight="1">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -45488,9 +45600,9 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="58"/>
+      <c r="O47" s="59"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:15" ht="18" customHeight="1">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -45504,9 +45616,9 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="59"/>
+      <c r="O48" s="60"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:15" ht="18" customHeight="1">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -45520,9 +45632,9 @@
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="58"/>
+      <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:15" ht="18" customHeight="1">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -45536,9 +45648,9 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="59"/>
+      <c r="O50" s="60"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:15" ht="18" customHeight="1">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -45552,9 +45664,9 @@
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
-      <c r="O51" s="58"/>
+      <c r="O51" s="59"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:15" ht="18" customHeight="1">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -45568,9 +45680,9 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
-      <c r="O52" s="59"/>
+      <c r="O52" s="60"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:15" ht="18" customHeight="1">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -45584,9 +45696,9 @@
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="58"/>
+      <c r="O53" s="59"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:15" ht="18" customHeight="1">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -45600,9 +45712,9 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
-      <c r="O54" s="59"/>
+      <c r="O54" s="60"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:15" ht="18" customHeight="1">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -45616,9 +45728,9 @@
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="O55" s="58"/>
+      <c r="O55" s="59"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:15" ht="18" customHeight="1">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -45632,9 +45744,9 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
-      <c r="O56" s="59"/>
+      <c r="O56" s="60"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:15" ht="18" customHeight="1">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -45648,9 +45760,9 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="58"/>
+      <c r="O57" s="59"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:15" ht="18" customHeight="1">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -45664,9 +45776,9 @@
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="59"/>
+      <c r="O58" s="60"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:15" ht="18" customHeight="1">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -45680,9 +45792,9 @@
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
-      <c r="O59" s="58"/>
+      <c r="O59" s="59"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:15" ht="18" customHeight="1">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -45696,9 +45808,9 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="59"/>
+      <c r="O60" s="60"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:15" ht="18" customHeight="1">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -45712,9 +45824,9 @@
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
-      <c r="O61" s="58"/>
+      <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:15" ht="18" customHeight="1">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -45728,9 +45840,9 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
-      <c r="O62" s="59"/>
+      <c r="O62" s="60"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:15" ht="18" customHeight="1">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -45744,9 +45856,9 @@
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
-      <c r="O63" s="58"/>
+      <c r="O63" s="59"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:15" ht="18" customHeight="1">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -45760,9 +45872,9 @@
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
-      <c r="O64" s="59"/>
+      <c r="O64" s="60"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:15" ht="18" customHeight="1">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -45776,9 +45888,9 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
-      <c r="O65" s="58"/>
+      <c r="O65" s="59"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:15" ht="18" customHeight="1">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -45792,9 +45904,9 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
-      <c r="O66" s="59"/>
+      <c r="O66" s="60"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -45810,7 +45922,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O3:O5"/>
@@ -45831,4 +45943,1163 @@
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O68"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="8" max="11" width="25" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="57"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+      <c r="B3" s="19"/>
+      <c r="C3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1">
+      <c r="B4" s="19"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="73"/>
+      <c r="K4" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="73"/>
+      <c r="O4" s="61"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="19"/>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="61"/>
+    </row>
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="58"/>
+    </row>
+    <row r="7" spans="1:15" ht="18" customHeight="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="59"/>
+    </row>
+    <row r="8" spans="1:15" ht="18" customHeight="1">
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="60"/>
+    </row>
+    <row r="9" spans="1:15" ht="18" customHeight="1">
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="59"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="60"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1">
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="59"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" customHeight="1">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="60"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="59"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" customHeight="1">
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="60"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="59"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1">
+      <c r="B16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="60"/>
+    </row>
+    <row r="17" spans="2:15" ht="18" customHeight="1">
+      <c r="B17" s="19"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="59"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" customHeight="1">
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="60"/>
+    </row>
+    <row r="19" spans="2:15" ht="18" customHeight="1">
+      <c r="B19" s="19"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="59"/>
+    </row>
+    <row r="20" spans="2:15" ht="18" customHeight="1">
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="60"/>
+    </row>
+    <row r="21" spans="2:15" ht="18" customHeight="1">
+      <c r="B21" s="19"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="59"/>
+    </row>
+    <row r="22" spans="2:15" ht="18" customHeight="1">
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="60"/>
+    </row>
+    <row r="23" spans="2:15" ht="18" customHeight="1">
+      <c r="B23" s="19"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="59"/>
+    </row>
+    <row r="24" spans="2:15" ht="18" customHeight="1">
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="60"/>
+    </row>
+    <row r="25" spans="2:15" ht="18" customHeight="1">
+      <c r="B25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="59"/>
+    </row>
+    <row r="26" spans="2:15" ht="18" customHeight="1">
+      <c r="B26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="60"/>
+    </row>
+    <row r="27" spans="2:15" ht="18" customHeight="1">
+      <c r="B27" s="19"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="59"/>
+    </row>
+    <row r="28" spans="2:15" ht="18" customHeight="1">
+      <c r="B28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="60"/>
+    </row>
+    <row r="29" spans="2:15" ht="18" customHeight="1">
+      <c r="B29" s="19"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="59"/>
+    </row>
+    <row r="30" spans="2:15" ht="18" customHeight="1">
+      <c r="B30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="60"/>
+    </row>
+    <row r="31" spans="2:15" ht="18" customHeight="1">
+      <c r="B31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="59"/>
+    </row>
+    <row r="32" spans="2:15" ht="18" customHeight="1">
+      <c r="B32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="60"/>
+    </row>
+    <row r="33" spans="2:15" ht="18" customHeight="1">
+      <c r="B33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="59"/>
+    </row>
+    <row r="34" spans="2:15" ht="18" customHeight="1">
+      <c r="B34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="60"/>
+    </row>
+    <row r="35" spans="2:15" ht="18" customHeight="1">
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="59"/>
+    </row>
+    <row r="36" spans="2:15" ht="18" customHeight="1">
+      <c r="B36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="60"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" customHeight="1">
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="59"/>
+    </row>
+    <row r="38" spans="2:15" ht="18" customHeight="1">
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="60"/>
+    </row>
+    <row r="39" spans="2:15" ht="18" customHeight="1">
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="59"/>
+    </row>
+    <row r="40" spans="2:15" ht="18" customHeight="1">
+      <c r="B40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="60"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" customHeight="1">
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="59"/>
+    </row>
+    <row r="42" spans="2:15" ht="18" customHeight="1">
+      <c r="B42" s="19"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="60"/>
+    </row>
+    <row r="43" spans="2:15" ht="18" customHeight="1">
+      <c r="B43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="59"/>
+    </row>
+    <row r="44" spans="2:15" ht="18" customHeight="1">
+      <c r="B44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="60"/>
+    </row>
+    <row r="45" spans="2:15" ht="18" customHeight="1">
+      <c r="B45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="59"/>
+    </row>
+    <row r="46" spans="2:15" ht="18" customHeight="1">
+      <c r="B46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="60"/>
+    </row>
+    <row r="47" spans="2:15" ht="18" customHeight="1">
+      <c r="B47" s="19"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="59"/>
+    </row>
+    <row r="48" spans="2:15" ht="18" customHeight="1">
+      <c r="B48" s="19"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="60"/>
+    </row>
+    <row r="49" spans="2:15" ht="18" customHeight="1">
+      <c r="B49" s="19"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="59"/>
+    </row>
+    <row r="50" spans="2:15" ht="18" customHeight="1">
+      <c r="B50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="60"/>
+    </row>
+    <row r="51" spans="2:15" ht="18" customHeight="1">
+      <c r="B51" s="19"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="59"/>
+    </row>
+    <row r="52" spans="2:15" ht="18" customHeight="1">
+      <c r="B52" s="19"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="60"/>
+    </row>
+    <row r="53" spans="2:15" ht="18" customHeight="1">
+      <c r="B53" s="19"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="59"/>
+    </row>
+    <row r="54" spans="2:15" ht="18" customHeight="1">
+      <c r="B54" s="19"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="60"/>
+    </row>
+    <row r="55" spans="2:15" ht="18" customHeight="1">
+      <c r="B55" s="19"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="59"/>
+    </row>
+    <row r="56" spans="2:15" ht="18" customHeight="1">
+      <c r="B56" s="19"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="60"/>
+    </row>
+    <row r="57" spans="2:15" ht="18" customHeight="1">
+      <c r="B57" s="19"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="59"/>
+    </row>
+    <row r="58" spans="2:15" ht="18" customHeight="1">
+      <c r="B58" s="19"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="60"/>
+    </row>
+    <row r="59" spans="2:15" ht="18" customHeight="1">
+      <c r="B59" s="19"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="59"/>
+    </row>
+    <row r="60" spans="2:15" ht="18" customHeight="1">
+      <c r="B60" s="19"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="60"/>
+    </row>
+    <row r="61" spans="2:15" ht="18" customHeight="1">
+      <c r="B61" s="19"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="59"/>
+    </row>
+    <row r="62" spans="2:15" ht="18" customHeight="1">
+      <c r="B62" s="19"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="60"/>
+    </row>
+    <row r="63" spans="2:15" ht="18" customHeight="1">
+      <c r="B63" s="19"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="59"/>
+    </row>
+    <row r="64" spans="2:15" ht="18" customHeight="1">
+      <c r="B64" s="19"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="60"/>
+    </row>
+    <row r="65" spans="2:15" ht="18" customHeight="1">
+      <c r="B65" s="19"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="29"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="59"/>
+    </row>
+    <row r="66" spans="2:15" ht="18" customHeight="1">
+      <c r="B66" s="19"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="60"/>
+    </row>
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+      <c r="B67" s="19"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="42"/>
+    </row>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
+&amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
+  </headerFooter>
+</worksheet>
 </file>
--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\templateG\New folder\Temp_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,9 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="マスタリスト" sheetId="11" r:id="rId1"/>
-    <sheet name="マスタリスト (2)" sheetId="24" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -26,29 +26,18 @@
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_Key1" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
-    <definedName name="_Parse_In" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
-    <definedName name="_Parse_Out" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_X" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
-    <definedName name="_Sort" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_" localSheetId="1">#REF!</definedName>
     <definedName name="_面接から採用に至るまでの情報管理とする_____アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う_">#REF!</definedName>
-    <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。" localSheetId="1">#REF!</definedName>
     <definedName name="・面接から採用に至るまでの情報管理とする。___・アウトソーシングにて_採用された情報を_ファイ__ルにて取込を行う。">#REF!</definedName>
-    <definedName name="a" localSheetId="1">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="a">'[1]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="AAA" localSheetId="1">#REF!</definedName>
     <definedName name="AAA">#REF!</definedName>
     <definedName name="AAAA" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="abc" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -56,219 +45,128 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守委託単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守支援単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="ｈｈｈ" localSheetId="1">#REF!</definedName>
     <definedName name="ｈｈｈ">#REF!</definedName>
     <definedName name="HW9707K">[3]仕切価格!$B$1:$BD$231</definedName>
-    <definedName name="ＩＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＩＨ">#REF!</definedName>
-    <definedName name="item1" localSheetId="1">#REF!</definedName>
     <definedName name="item1">#REF!</definedName>
-    <definedName name="Ｉホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｉホ">#REF!</definedName>
     <definedName name="k" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="kkkk" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="ＬＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬＨ">#REF!</definedName>
-    <definedName name="ＬサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬサＨ">#REF!</definedName>
-    <definedName name="Ｌサホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌサホ">#REF!</definedName>
-    <definedName name="ＬニＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＬニＨ">#REF!</definedName>
-    <definedName name="Ｌニホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌニホ">#REF!</definedName>
-    <definedName name="Ｌホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｌホ">#REF!</definedName>
-    <definedName name="ＭＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＭＨ">#REF!</definedName>
-    <definedName name="Ｍホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｍホ">#REF!</definedName>
-    <definedName name="ｎ" localSheetId="1">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="ｎ">'[4]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="ＯＨ" localSheetId="1">#REF!</definedName>
     <definedName name="ＯＨ">#REF!</definedName>
-    <definedName name="OPT_NO" localSheetId="1">[5]!OPT_NO</definedName>
     <definedName name="OPT_NO">[5]!OPT_NO</definedName>
-    <definedName name="OPT_YES" localSheetId="1">[5]!OPT_YES</definedName>
     <definedName name="OPT_YES">[5]!OPT_YES</definedName>
-    <definedName name="Ｏホ" localSheetId="1">#REF!</definedName>
     <definedName name="Ｏホ">#REF!</definedName>
-    <definedName name="PG単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
-    <definedName name="PG田中" localSheetId="1">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'マスタリスト (2)'!$A$1:$P$67</definedName>
-    <definedName name="PrintDaicho" localSheetId="1">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
-    <definedName name="QuitDaicho" localSheetId="1">[7]!QuitDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
-    <definedName name="SE単価" localSheetId="1">[6]明細合計!#REF!</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
-    <definedName name="sss" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
-    <definedName name="SS単価" localSheetId="1">#REF!</definedName>
     <definedName name="SS単価">#REF!</definedName>
-    <definedName name="STEP概算" localSheetId="1">#REF!</definedName>
     <definedName name="STEP概算">#REF!</definedName>
-    <definedName name="ＳＷ" localSheetId="1">#REF!</definedName>
     <definedName name="ＳＷ">#REF!</definedName>
-    <definedName name="Ver002001006特休残管理対応" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
-    <definedName name="ｗ" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="ｗ">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="WC単価">'[2]見積明細(ハードのみ）'!$X$5:$X$34</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="wrn.PRINT_ALL." hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="wrn.REPORT1." hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="あ" localSheetId="1">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
-    <definedName name="あ１" localSheetId="1">#REF!</definedName>
     <definedName name="あ１">#REF!</definedName>
     <definedName name="あああ" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
-    <definedName name="ああああああああああ" localSheetId="1">#REF!</definedName>
     <definedName name="ああああああああああ">#REF!</definedName>
-    <definedName name="い" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="い" hidden="1">#REF!</definedName>
-    <definedName name="クＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クＨ">#REF!</definedName>
-    <definedName name="クサＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クサＨ">#REF!</definedName>
-    <definedName name="クサホ" localSheetId="1">#REF!</definedName>
     <definedName name="クサホ">#REF!</definedName>
-    <definedName name="クにＨ" localSheetId="1">#REF!</definedName>
     <definedName name="クにＨ">#REF!</definedName>
-    <definedName name="クニホ" localSheetId="1">#REF!</definedName>
     <definedName name="クニホ">#REF!</definedName>
-    <definedName name="クホ" localSheetId="1">#REF!</definedName>
     <definedName name="クホ">#REF!</definedName>
-    <definedName name="サＨ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サＨ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ" localSheetId="1">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
     <definedName name="サホ">'[8]１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ'!#REF!</definedName>
-    <definedName name="サホ1" localSheetId="1">#REF!</definedName>
     <definedName name="サホ1">#REF!</definedName>
-    <definedName name="ツール別見積工数" localSheetId="1">#REF!</definedName>
     <definedName name="ツール別見積工数">#REF!</definedName>
     <definedName name="テーブル項目">[9]項目定義書!$A$3:$E$364</definedName>
-    <definedName name="ハ１" localSheetId="1">#REF!</definedName>
     <definedName name="ハ１">#REF!</definedName>
-    <definedName name="は２" localSheetId="1">#REF!</definedName>
     <definedName name="は２">#REF!</definedName>
-    <definedName name="ハ２ホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハ２ホ">#REF!</definedName>
-    <definedName name="は３" localSheetId="1">#REF!</definedName>
     <definedName name="は３">#REF!</definedName>
-    <definedName name="ハサホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハサホ">#REF!</definedName>
-    <definedName name="ﾊﾞｽ･ﾀｸｼｰ" localSheetId="1">#REF!</definedName>
     <definedName name="ﾊﾞｽ･ﾀｸｼｰ">#REF!</definedName>
-    <definedName name="ハホ" localSheetId="1">#REF!</definedName>
     <definedName name="ハホ">#REF!</definedName>
-    <definedName name="ヘッダー" localSheetId="1">#REF!</definedName>
     <definedName name="ヘッダー">#REF!</definedName>
-    <definedName name="ユーザー一覧" localSheetId="1">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
-    <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="1">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
     <definedName name="人日原価">#REF!</definedName>
     <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
     <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
     <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
     <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="住民税納付先の登録7">#REF!</definedName>
-    <definedName name="価格表" localSheetId="1">#REF!</definedName>
     <definedName name="価格表">#REF!</definedName>
     <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
     <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
     <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
     <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
     <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価" localSheetId="1">#REF!</definedName>
     <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
     <definedName name="単価種別">#REF!</definedName>
-    <definedName name="原価" localSheetId="1">#REF!</definedName>
     <definedName name="原価">#REF!</definedName>
-    <definedName name="売値" localSheetId="1">#REF!</definedName>
     <definedName name="売値">#REF!</definedName>
-    <definedName name="定価" localSheetId="1">#REF!</definedName>
     <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
     <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
     <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
     <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
     <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
     <definedName name="日帰り単金">#REF!</definedName>
-    <definedName name="概要_基準日設定" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
     <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
     <definedName name="機種SORT">[11]!機種SORT</definedName>
-    <definedName name="機能別原価" localSheetId="1">#REF!</definedName>
     <definedName name="機能別原価">#REF!</definedName>
     <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
     <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別" localSheetId="1">#REF!</definedName>
     <definedName name="種別">#REF!</definedName>
-    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
     <definedName name="見積工数">#REF!</definedName>
     <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
     <definedName name="部門別時間外労働手当状況">#REF!</definedName>
-    <definedName name="銀行の登録48" localSheetId="1">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
-    <definedName name="銀行の登録67" localSheetId="1">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
-    <definedName name="銀行の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車" localSheetId="1">#REF!</definedName>
     <definedName name="電車">#REF!</definedName>
-    <definedName name="項目名の登録1" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
-    <definedName name="項目名の登録2" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
-    <definedName name="項目名の登録3" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
-    <definedName name="項目名の登録4" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録4">#REF!</definedName>
-    <definedName name="項目名の登録5" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録5">#REF!</definedName>
-    <definedName name="項目名の登録6" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録6">#REF!</definedName>
-    <definedName name="項目名の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
-    <definedName name="項目名の登録8" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
-    <definedName name="飛行機" localSheetId="1">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -409,7 +307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -934,15 +832,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="6"/>
       </left>
@@ -981,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1151,16 +1040,13 @@
     <xf numFmtId="38" fontId="4" fillId="3" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="40" fontId="4" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="4" fillId="3" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="3" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="4" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -44792,7 +44678,7 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
   <cols>
@@ -44811,7 +44697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="57"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44826,6 +44712,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+      <c r="A2" s="3"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -44842,27 +44729,27 @@
     </row>
     <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
       <c r="B3" s="19"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="61" t="s">
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="60" t="s">
         <v>8</v>
       </c>
     </row>
@@ -44872,23 +44759,23 @@
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
+      <c r="H4" s="70"/>
+      <c r="I4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="61"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="B5" s="19"/>
@@ -44928,7 +44815,7 @@
       <c r="N5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="61"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
       <c r="B6" s="19"/>
@@ -44944,7 +44831,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="B7" s="19"/>
@@ -44960,7 +44847,7 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="59"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="18" customHeight="1">
       <c r="B8" s="19"/>
@@ -44976,7 +44863,7 @@
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
-      <c r="O8" s="60"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="1:15" ht="18" customHeight="1">
       <c r="B9" s="19"/>
@@ -44992,7 +44879,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="59"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="B10" s="19"/>
@@ -45008,7 +44895,7 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
-      <c r="O10" s="60"/>
+      <c r="O10" s="59"/>
     </row>
     <row r="11" spans="1:15" ht="18" customHeight="1">
       <c r="B11" s="19"/>
@@ -45024,7 +44911,7 @@
       <c r="L11" s="32"/>
       <c r="M11" s="32"/>
       <c r="N11" s="32"/>
-      <c r="O11" s="59"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="1:15" ht="18" customHeight="1">
       <c r="B12" s="19"/>
@@ -45040,7 +44927,7 @@
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
-      <c r="O12" s="60"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="1:15" ht="18" customHeight="1">
       <c r="B13" s="19"/>
@@ -45056,7 +44943,7 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="59"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1">
       <c r="B14" s="19"/>
@@ -45072,7 +44959,7 @@
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
-      <c r="O14" s="60"/>
+      <c r="O14" s="59"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
       <c r="B15" s="19"/>
@@ -45088,7 +44975,7 @@
       <c r="L15" s="32"/>
       <c r="M15" s="32"/>
       <c r="N15" s="32"/>
-      <c r="O15" s="59"/>
+      <c r="O15" s="58"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
       <c r="B16" s="19"/>
@@ -45104,7 +44991,7 @@
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
-      <c r="O16" s="60"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="2:15" ht="18" customHeight="1">
       <c r="B17" s="19"/>
@@ -45120,7 +45007,7 @@
       <c r="L17" s="32"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="59"/>
+      <c r="O17" s="58"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1">
       <c r="B18" s="19"/>
@@ -45136,7 +45023,7 @@
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
-      <c r="O18" s="60"/>
+      <c r="O18" s="59"/>
     </row>
     <row r="19" spans="2:15" ht="18" customHeight="1">
       <c r="B19" s="19"/>
@@ -45152,7 +45039,7 @@
       <c r="L19" s="32"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="59"/>
+      <c r="O19" s="58"/>
     </row>
     <row r="20" spans="2:15" ht="18" customHeight="1">
       <c r="B20" s="19"/>
@@ -45168,7 +45055,7 @@
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
-      <c r="O20" s="60"/>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15" ht="18" customHeight="1">
       <c r="B21" s="19"/>
@@ -45184,7 +45071,7 @@
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="59"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="2:15" ht="18" customHeight="1">
       <c r="B22" s="19"/>
@@ -45200,7 +45087,7 @@
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
-      <c r="O22" s="60"/>
+      <c r="O22" s="59"/>
     </row>
     <row r="23" spans="2:15" ht="18" customHeight="1">
       <c r="B23" s="19"/>
@@ -45216,7 +45103,7 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
-      <c r="O23" s="59"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1">
       <c r="B24" s="19"/>
@@ -45232,7 +45119,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
-      <c r="O24" s="60"/>
+      <c r="O24" s="59"/>
     </row>
     <row r="25" spans="2:15" ht="18" customHeight="1">
       <c r="B25" s="19"/>
@@ -45248,7 +45135,7 @@
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
-      <c r="O25" s="59"/>
+      <c r="O25" s="58"/>
     </row>
     <row r="26" spans="2:15" ht="18" customHeight="1">
       <c r="B26" s="19"/>
@@ -45264,7 +45151,7 @@
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
-      <c r="O26" s="60"/>
+      <c r="O26" s="59"/>
     </row>
     <row r="27" spans="2:15" ht="18" customHeight="1">
       <c r="B27" s="19"/>
@@ -45280,7 +45167,7 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
-      <c r="O27" s="59"/>
+      <c r="O27" s="58"/>
     </row>
     <row r="28" spans="2:15" ht="18" customHeight="1">
       <c r="B28" s="19"/>
@@ -45296,7 +45183,7 @@
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
-      <c r="O28" s="60"/>
+      <c r="O28" s="59"/>
     </row>
     <row r="29" spans="2:15" ht="18" customHeight="1">
       <c r="B29" s="19"/>
@@ -45312,7 +45199,7 @@
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
-      <c r="O29" s="59"/>
+      <c r="O29" s="58"/>
     </row>
     <row r="30" spans="2:15" ht="18" customHeight="1">
       <c r="B30" s="19"/>
@@ -45328,7 +45215,7 @@
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
-      <c r="O30" s="60"/>
+      <c r="O30" s="59"/>
     </row>
     <row r="31" spans="2:15" ht="18" customHeight="1">
       <c r="B31" s="19"/>
@@ -45344,7 +45231,7 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
-      <c r="O31" s="59"/>
+      <c r="O31" s="58"/>
     </row>
     <row r="32" spans="2:15" ht="18" customHeight="1">
       <c r="B32" s="19"/>
@@ -45360,7 +45247,7 @@
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
-      <c r="O32" s="60"/>
+      <c r="O32" s="59"/>
     </row>
     <row r="33" spans="2:15" ht="18" customHeight="1">
       <c r="B33" s="19"/>
@@ -45376,7 +45263,7 @@
       <c r="L33" s="32"/>
       <c r="M33" s="32"/>
       <c r="N33" s="32"/>
-      <c r="O33" s="59"/>
+      <c r="O33" s="58"/>
     </row>
     <row r="34" spans="2:15" ht="18" customHeight="1">
       <c r="B34" s="19"/>
@@ -45392,7 +45279,7 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
-      <c r="O34" s="60"/>
+      <c r="O34" s="59"/>
     </row>
     <row r="35" spans="2:15" ht="18" customHeight="1">
       <c r="B35" s="19"/>
@@ -45408,7 +45295,7 @@
       <c r="L35" s="32"/>
       <c r="M35" s="32"/>
       <c r="N35" s="32"/>
-      <c r="O35" s="59"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" spans="2:15" ht="18" customHeight="1">
       <c r="B36" s="19"/>
@@ -45424,7 +45311,7 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
-      <c r="O36" s="60"/>
+      <c r="O36" s="59"/>
     </row>
     <row r="37" spans="2:15" ht="18" customHeight="1">
       <c r="B37" s="19"/>
@@ -45440,7 +45327,7 @@
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="59"/>
+      <c r="O37" s="58"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
       <c r="B38" s="19"/>
@@ -45456,7 +45343,7 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="60"/>
+      <c r="O38" s="59"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
       <c r="B39" s="19"/>
@@ -45472,7 +45359,7 @@
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
       <c r="N39" s="32"/>
-      <c r="O39" s="59"/>
+      <c r="O39" s="58"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
       <c r="B40" s="19"/>
@@ -45488,7 +45375,7 @@
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
-      <c r="O40" s="60"/>
+      <c r="O40" s="59"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
       <c r="B41" s="19"/>
@@ -45504,7 +45391,7 @@
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
       <c r="N41" s="32"/>
-      <c r="O41" s="59"/>
+      <c r="O41" s="58"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
       <c r="B42" s="19"/>
@@ -45520,7 +45407,7 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
-      <c r="O42" s="60"/>
+      <c r="O42" s="59"/>
     </row>
     <row r="43" spans="2:15" ht="18" customHeight="1">
       <c r="B43" s="19"/>
@@ -45536,7 +45423,7 @@
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
       <c r="N43" s="32"/>
-      <c r="O43" s="59"/>
+      <c r="O43" s="58"/>
     </row>
     <row r="44" spans="2:15" ht="18" customHeight="1">
       <c r="B44" s="19"/>
@@ -45552,7 +45439,7 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
-      <c r="O44" s="60"/>
+      <c r="O44" s="59"/>
     </row>
     <row r="45" spans="2:15" ht="18" customHeight="1">
       <c r="B45" s="19"/>
@@ -45568,7 +45455,7 @@
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
       <c r="N45" s="32"/>
-      <c r="O45" s="59"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" spans="2:15" ht="18" customHeight="1">
       <c r="B46" s="19"/>
@@ -45584,7 +45471,7 @@
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
-      <c r="O46" s="60"/>
+      <c r="O46" s="59"/>
     </row>
     <row r="47" spans="2:15" ht="18" customHeight="1">
       <c r="B47" s="19"/>
@@ -45600,7 +45487,7 @@
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
-      <c r="O47" s="59"/>
+      <c r="O47" s="58"/>
     </row>
     <row r="48" spans="2:15" ht="18" customHeight="1">
       <c r="B48" s="19"/>
@@ -45616,7 +45503,7 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
-      <c r="O48" s="60"/>
+      <c r="O48" s="59"/>
     </row>
     <row r="49" spans="2:15" ht="18" customHeight="1">
       <c r="B49" s="19"/>
@@ -45632,7 +45519,7 @@
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
       <c r="N49" s="32"/>
-      <c r="O49" s="59"/>
+      <c r="O49" s="58"/>
     </row>
     <row r="50" spans="2:15" ht="18" customHeight="1">
       <c r="B50" s="19"/>
@@ -45648,7 +45535,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
-      <c r="O50" s="60"/>
+      <c r="O50" s="59"/>
     </row>
     <row r="51" spans="2:15" ht="18" customHeight="1">
       <c r="B51" s="19"/>
@@ -45664,7 +45551,7 @@
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
       <c r="N51" s="32"/>
-      <c r="O51" s="59"/>
+      <c r="O51" s="58"/>
     </row>
     <row r="52" spans="2:15" ht="18" customHeight="1">
       <c r="B52" s="19"/>
@@ -45680,7 +45567,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
-      <c r="O52" s="60"/>
+      <c r="O52" s="59"/>
     </row>
     <row r="53" spans="2:15" ht="18" customHeight="1">
       <c r="B53" s="19"/>
@@ -45696,7 +45583,7 @@
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
-      <c r="O53" s="59"/>
+      <c r="O53" s="58"/>
     </row>
     <row r="54" spans="2:15" ht="18" customHeight="1">
       <c r="B54" s="19"/>
@@ -45712,7 +45599,7 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
-      <c r="O54" s="60"/>
+      <c r="O54" s="59"/>
     </row>
     <row r="55" spans="2:15" ht="18" customHeight="1">
       <c r="B55" s="19"/>
@@ -45728,7 +45615,7 @@
       <c r="L55" s="32"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
-      <c r="O55" s="59"/>
+      <c r="O55" s="58"/>
     </row>
     <row r="56" spans="2:15" ht="18" customHeight="1">
       <c r="B56" s="19"/>
@@ -45744,7 +45631,7 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
-      <c r="O56" s="60"/>
+      <c r="O56" s="59"/>
     </row>
     <row r="57" spans="2:15" ht="18" customHeight="1">
       <c r="B57" s="19"/>
@@ -45760,7 +45647,7 @@
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
-      <c r="O57" s="59"/>
+      <c r="O57" s="58"/>
     </row>
     <row r="58" spans="2:15" ht="18" customHeight="1">
       <c r="B58" s="19"/>
@@ -45776,7 +45663,7 @@
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="60"/>
+      <c r="O58" s="59"/>
     </row>
     <row r="59" spans="2:15" ht="18" customHeight="1">
       <c r="B59" s="19"/>
@@ -45792,7 +45679,7 @@
       <c r="L59" s="32"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
-      <c r="O59" s="59"/>
+      <c r="O59" s="58"/>
     </row>
     <row r="60" spans="2:15" ht="18" customHeight="1">
       <c r="B60" s="19"/>
@@ -45808,7 +45695,7 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="60"/>
+      <c r="O60" s="59"/>
     </row>
     <row r="61" spans="2:15" ht="18" customHeight="1">
       <c r="B61" s="19"/>
@@ -45824,7 +45711,7 @@
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
       <c r="N61" s="32"/>
-      <c r="O61" s="59"/>
+      <c r="O61" s="58"/>
     </row>
     <row r="62" spans="2:15" ht="18" customHeight="1">
       <c r="B62" s="19"/>
@@ -45840,7 +45727,7 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
-      <c r="O62" s="60"/>
+      <c r="O62" s="59"/>
     </row>
     <row r="63" spans="2:15" ht="18" customHeight="1">
       <c r="B63" s="19"/>
@@ -45856,7 +45743,7 @@
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
       <c r="N63" s="32"/>
-      <c r="O63" s="59"/>
+      <c r="O63" s="58"/>
     </row>
     <row r="64" spans="2:15" ht="18" customHeight="1">
       <c r="B64" s="19"/>
@@ -45872,7 +45759,7 @@
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
-      <c r="O64" s="60"/>
+      <c r="O64" s="59"/>
     </row>
     <row r="65" spans="2:15" ht="18" customHeight="1">
       <c r="B65" s="19"/>
@@ -45888,7 +45775,7 @@
       <c r="L65" s="32"/>
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
-      <c r="O65" s="59"/>
+      <c r="O65" s="58"/>
     </row>
     <row r="66" spans="2:15" ht="18" customHeight="1">
       <c r="B66" s="19"/>
@@ -45904,7 +45791,7 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
-      <c r="O66" s="60"/>
+      <c r="O66" s="59"/>
     </row>
     <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
       <c r="B67" s="19"/>
@@ -45939,1166 +45826,7 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
-&amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:O68"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
-  <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="57"/>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="73"/>
-      <c r="O4" s="61"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="61"/>
-    </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="59"/>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="60"/>
-    </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
-      <c r="B9" s="19"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="59"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="60"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="59"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="59"/>
-    </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
-      <c r="B15" s="19"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="59"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
-      <c r="B16" s="19"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
-      <c r="B17" s="19"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="59"/>
-    </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
-      <c r="B19" s="19"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="59"/>
-    </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
-      <c r="B21" s="19"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="59"/>
-    </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
-      <c r="B22" s="19"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
-      <c r="B23" s="19"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="59"/>
-    </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="60"/>
-    </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
-      <c r="B25" s="19"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="59"/>
-    </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
-      <c r="B26" s="19"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="60"/>
-    </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
-      <c r="B27" s="19"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="59"/>
-    </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
-      <c r="B28" s="19"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="60"/>
-    </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
-      <c r="B29" s="19"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="59"/>
-    </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
-      <c r="B30" s="19"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="60"/>
-    </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
-      <c r="B31" s="19"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="59"/>
-    </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
-      <c r="B32" s="19"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="60"/>
-    </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
-      <c r="B33" s="19"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="59"/>
-    </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
-      <c r="B34" s="19"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="60"/>
-    </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="59"/>
-    </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
-      <c r="B36" s="19"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="60"/>
-    </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="59"/>
-    </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="19"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="60"/>
-    </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="59"/>
-    </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="19"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="60"/>
-    </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="59"/>
-    </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="19"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="60"/>
-    </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
-      <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="59"/>
-    </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
-      <c r="B44" s="19"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="60"/>
-    </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
-      <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="59"/>
-    </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
-      <c r="B46" s="19"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="60"/>
-    </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
-      <c r="B47" s="19"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="59"/>
-    </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
-      <c r="B48" s="19"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="60"/>
-    </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
-      <c r="B49" s="19"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="59"/>
-    </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
-      <c r="B50" s="19"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="60"/>
-    </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
-      <c r="B51" s="19"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="59"/>
-    </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
-      <c r="B52" s="19"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="60"/>
-    </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
-      <c r="B53" s="19"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="59"/>
-    </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
-      <c r="B54" s="19"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="60"/>
-    </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
-      <c r="B55" s="19"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="59"/>
-    </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
-      <c r="B56" s="19"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="60"/>
-    </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
-      <c r="B57" s="19"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="59"/>
-    </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
-      <c r="B58" s="19"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="60"/>
-    </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
-      <c r="B59" s="19"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="59"/>
-    </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
-      <c r="B60" s="19"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="60"/>
-    </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
-      <c r="B61" s="19"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="59"/>
-    </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
-      <c r="B62" s="19"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="60"/>
-    </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
-      <c r="B63" s="19"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="59"/>
-    </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="60"/>
-    </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
-      <c r="B65" s="19"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="59"/>
-    </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
-      <c r="B66" s="19"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="60"/>
-    </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
-      <c r="B67" s="19"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="42"/>
-    </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-  </mergeCells>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
+    <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
   </headerFooter>
 </worksheet>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tam.nx\Desktop\templateG\New folder\Temp_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,12 +56,12 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
-    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価" localSheetId="1">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
@@ -108,7 +108,7 @@
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
     <definedName name="PG田中" localSheetId="1">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A:$P</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'マスタリスト (2)'!$A$1:$P$67</definedName>
     <definedName name="PrintDaicho" localSheetId="1">[7]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
@@ -182,68 +182,27 @@
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ" localSheetId="1">#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
     <definedName name="価格表" localSheetId="1">#REF!</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価" localSheetId="1">#REF!</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="原価" localSheetId="1">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値" localSheetId="1">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価" localSheetId="1">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
     <definedName name="概要_基準日設定" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
     <definedName name="機種SORT">[11]!機種SORT</definedName>
     <definedName name="機能別原価" localSheetId="1">#REF!</definedName>
     <definedName name="機能別原価">#REF!</definedName>
-    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別" localSheetId="1">#REF!</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
-    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
     <definedName name="銀行の登録48" localSheetId="1">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67" localSheetId="1">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7" localSheetId="1">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車" localSheetId="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見積工数" localSheetId="1">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価" localSheetId="1">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性" localSheetId="1">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2" localSheetId="1">#REF!</definedName>
@@ -260,10 +219,51 @@
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8" localSheetId="1">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別" localSheetId="1">#REF!</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="住民税115" localSheetId="1">#REF!</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96" localSheetId="1">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7" localSheetId="1">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊" localSheetId="1">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金" localSheetId="1">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価" localSheetId="1">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="単価" localSheetId="1">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別" localSheetId="1">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価" localSheetId="1">#REF!</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車" localSheetId="1">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り" localSheetId="1">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金" localSheetId="1">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値" localSheetId="1">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機" localSheetId="1">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況" localSheetId="1">#REF!</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -331,17 +331,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -369,7 +369,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44792,25 +44792,21 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="57"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -44825,7 +44821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -44840,7 +44836,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="19"/>
       <c r="C3" s="62" t="s">
         <v>4</v>
@@ -44866,7 +44862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
@@ -44890,7 +44886,7 @@
       <c r="N4" s="73"/>
       <c r="O4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -44930,7 +44926,7 @@
       </c>
       <c r="O5" s="61"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -44946,7 +44942,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="58"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -44962,7 +44958,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="59"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -44978,7 +44974,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -44994,7 +44990,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="59"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -45010,7 +45006,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="60"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -45026,7 +45022,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -45042,7 +45038,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="60"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -45058,7 +45054,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="59"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -45074,7 +45070,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="60"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -45090,7 +45086,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="59"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -45106,7 +45102,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="60"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -45122,7 +45118,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -45138,7 +45134,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="60"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -45154,7 +45150,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="59"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
+    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -45170,7 +45166,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -45186,7 +45182,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="59"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -45202,7 +45198,7 @@
       <c r="N22" s="36"/>
       <c r="O22" s="60"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
+    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -45218,7 +45214,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="59"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
+    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -45234,7 +45230,7 @@
       <c r="N24" s="36"/>
       <c r="O24" s="60"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -45250,7 +45246,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="59"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -45266,7 +45262,7 @@
       <c r="N26" s="36"/>
       <c r="O26" s="60"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
+    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -45282,7 +45278,7 @@
       <c r="N27" s="32"/>
       <c r="O27" s="59"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -45298,7 +45294,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="60"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
+    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -45314,7 +45310,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -45330,7 +45326,7 @@
       <c r="N30" s="36"/>
       <c r="O30" s="60"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -45346,7 +45342,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -45362,7 +45358,7 @@
       <c r="N32" s="36"/>
       <c r="O32" s="60"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -45378,7 +45374,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -45394,7 +45390,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="60"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -45410,7 +45406,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -45426,7 +45422,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="60"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -45442,7 +45438,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -45458,7 +45454,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="60"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -45474,7 +45470,7 @@
       <c r="N39" s="32"/>
       <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -45490,7 +45486,7 @@
       <c r="N40" s="36"/>
       <c r="O40" s="60"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -45506,7 +45502,7 @@
       <c r="N41" s="32"/>
       <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -45522,7 +45518,7 @@
       <c r="N42" s="36"/>
       <c r="O42" s="60"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
+    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -45538,7 +45534,7 @@
       <c r="N43" s="32"/>
       <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
+    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -45554,7 +45550,7 @@
       <c r="N44" s="36"/>
       <c r="O44" s="60"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -45570,7 +45566,7 @@
       <c r="N45" s="32"/>
       <c r="O45" s="59"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -45586,7 +45582,7 @@
       <c r="N46" s="36"/>
       <c r="O46" s="60"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
+    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -45602,7 +45598,7 @@
       <c r="N47" s="32"/>
       <c r="O47" s="59"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -45618,7 +45614,7 @@
       <c r="N48" s="36"/>
       <c r="O48" s="60"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
+    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -45634,7 +45630,7 @@
       <c r="N49" s="32"/>
       <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
+    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -45650,7 +45646,7 @@
       <c r="N50" s="36"/>
       <c r="O50" s="60"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
+    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -45666,7 +45662,7 @@
       <c r="N51" s="32"/>
       <c r="O51" s="59"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
+    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -45682,7 +45678,7 @@
       <c r="N52" s="36"/>
       <c r="O52" s="60"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
+    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -45698,7 +45694,7 @@
       <c r="N53" s="32"/>
       <c r="O53" s="59"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
+    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -45714,7 +45710,7 @@
       <c r="N54" s="36"/>
       <c r="O54" s="60"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
+    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -45730,7 +45726,7 @@
       <c r="N55" s="32"/>
       <c r="O55" s="59"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
+    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -45746,7 +45742,7 @@
       <c r="N56" s="36"/>
       <c r="O56" s="60"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
+    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -45762,7 +45758,7 @@
       <c r="N57" s="32"/>
       <c r="O57" s="59"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
+    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -45778,7 +45774,7 @@
       <c r="N58" s="36"/>
       <c r="O58" s="60"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
+    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -45794,7 +45790,7 @@
       <c r="N59" s="32"/>
       <c r="O59" s="59"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
+    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -45810,7 +45806,7 @@
       <c r="N60" s="36"/>
       <c r="O60" s="60"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
+    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -45826,7 +45822,7 @@
       <c r="N61" s="32"/>
       <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
+    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -45842,7 +45838,7 @@
       <c r="N62" s="36"/>
       <c r="O62" s="60"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
+    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -45858,7 +45854,7 @@
       <c r="N63" s="32"/>
       <c r="O63" s="59"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
+    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -45874,7 +45870,7 @@
       <c r="N64" s="36"/>
       <c r="O64" s="60"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
+    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -45890,7 +45886,7 @@
       <c r="N65" s="32"/>
       <c r="O65" s="59"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
+    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -45906,7 +45902,7 @@
       <c r="N66" s="36"/>
       <c r="O66" s="60"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -45922,7 +45918,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O3:O5"/>
@@ -45937,7 +45933,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
@@ -45954,23 +45950,23 @@
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.625" style="1" customWidth="1"/>
     <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="24.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
+    <col min="15" max="15" width="25.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="57"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -45985,7 +45981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -46000,7 +45996,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="19"/>
       <c r="C3" s="62" t="s">
         <v>4</v>
@@ -46026,7 +46022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
@@ -46050,7 +46046,7 @@
       <c r="N4" s="73"/>
       <c r="O4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -46090,7 +46086,7 @@
       </c>
       <c r="O5" s="61"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -46106,7 +46102,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="58"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -46122,7 +46118,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="59"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -46138,7 +46134,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -46154,7 +46150,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="59"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -46170,7 +46166,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="60"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -46186,7 +46182,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="59"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -46202,7 +46198,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="60"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -46218,7 +46214,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="59"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -46234,7 +46230,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="60"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -46250,7 +46246,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="59"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -46266,7 +46262,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="60"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -46282,7 +46278,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="59"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -46298,7 +46294,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="60"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -46314,7 +46310,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="59"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
+    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -46330,7 +46326,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="60"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -46346,7 +46342,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="59"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -46362,7 +46358,7 @@
       <c r="N22" s="36"/>
       <c r="O22" s="60"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
+    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -46378,7 +46374,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="59"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
+    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -46394,7 +46390,7 @@
       <c r="N24" s="36"/>
       <c r="O24" s="60"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -46410,7 +46406,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="59"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -46426,7 +46422,7 @@
       <c r="N26" s="36"/>
       <c r="O26" s="60"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
+    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -46442,7 +46438,7 @@
       <c r="N27" s="32"/>
       <c r="O27" s="59"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -46458,7 +46454,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="60"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
+    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -46474,7 +46470,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="59"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -46490,7 +46486,7 @@
       <c r="N30" s="36"/>
       <c r="O30" s="60"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -46506,7 +46502,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="59"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -46522,7 +46518,7 @@
       <c r="N32" s="36"/>
       <c r="O32" s="60"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -46538,7 +46534,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="59"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -46554,7 +46550,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="60"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -46570,7 +46566,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="59"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -46586,7 +46582,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="60"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -46602,7 +46598,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="59"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -46618,7 +46614,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="60"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -46634,7 +46630,7 @@
       <c r="N39" s="32"/>
       <c r="O39" s="59"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -46650,7 +46646,7 @@
       <c r="N40" s="36"/>
       <c r="O40" s="60"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -46666,7 +46662,7 @@
       <c r="N41" s="32"/>
       <c r="O41" s="59"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -46682,7 +46678,7 @@
       <c r="N42" s="36"/>
       <c r="O42" s="60"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
+    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -46698,7 +46694,7 @@
       <c r="N43" s="32"/>
       <c r="O43" s="59"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
+    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -46714,7 +46710,7 @@
       <c r="N44" s="36"/>
       <c r="O44" s="60"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -46730,7 +46726,7 @@
       <c r="N45" s="32"/>
       <c r="O45" s="59"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -46746,7 +46742,7 @@
       <c r="N46" s="36"/>
       <c r="O46" s="60"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
+    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -46762,7 +46758,7 @@
       <c r="N47" s="32"/>
       <c r="O47" s="59"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -46778,7 +46774,7 @@
       <c r="N48" s="36"/>
       <c r="O48" s="60"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
+    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -46794,7 +46790,7 @@
       <c r="N49" s="32"/>
       <c r="O49" s="59"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
+    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -46810,7 +46806,7 @@
       <c r="N50" s="36"/>
       <c r="O50" s="60"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
+    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -46826,7 +46822,7 @@
       <c r="N51" s="32"/>
       <c r="O51" s="59"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
+    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -46842,7 +46838,7 @@
       <c r="N52" s="36"/>
       <c r="O52" s="60"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
+    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -46858,7 +46854,7 @@
       <c r="N53" s="32"/>
       <c r="O53" s="59"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
+    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -46874,7 +46870,7 @@
       <c r="N54" s="36"/>
       <c r="O54" s="60"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
+    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -46890,7 +46886,7 @@
       <c r="N55" s="32"/>
       <c r="O55" s="59"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
+    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -46906,7 +46902,7 @@
       <c r="N56" s="36"/>
       <c r="O56" s="60"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
+    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -46922,7 +46918,7 @@
       <c r="N57" s="32"/>
       <c r="O57" s="59"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
+    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -46938,7 +46934,7 @@
       <c r="N58" s="36"/>
       <c r="O58" s="60"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
+    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -46954,7 +46950,7 @@
       <c r="N59" s="32"/>
       <c r="O59" s="59"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
+    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -46970,7 +46966,7 @@
       <c r="N60" s="36"/>
       <c r="O60" s="60"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
+    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -46986,7 +46982,7 @@
       <c r="N61" s="32"/>
       <c r="O61" s="59"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
+    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -47002,7 +46998,7 @@
       <c r="N62" s="36"/>
       <c r="O62" s="60"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
+    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -47018,7 +47014,7 @@
       <c r="N63" s="32"/>
       <c r="O63" s="59"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
+    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -47034,7 +47030,7 @@
       <c r="N64" s="36"/>
       <c r="O64" s="60"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
+    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -47050,7 +47046,7 @@
       <c r="N65" s="32"/>
       <c r="O65" s="59"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
+    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -47066,7 +47062,7 @@
       <c r="N66" s="36"/>
       <c r="O66" s="60"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -47082,7 +47078,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C3:D3"/>
@@ -47095,6 +47091,7 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
   </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
   <headerFooter>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -44792,22 +44792,20 @@
   </sheetPr>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="15" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="16.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
     <col min="17" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="57"/>
+      <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -44822,6 +44820,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
@@ -45933,7 +45932,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,Regular"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,Regular"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,Regular"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/QMM008_SMR_EPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\uk\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\sourceUK\nts.uk\uk.pr\pr.file\nts.uk.file.pr.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,9 +45,9 @@
     <definedName name="ｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
     <definedName name="ｂｂｂｂ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="ｃｃｃｃ" hidden="1">{"VIEW1",#N/A,FALSE,"懸案事項";"VIEW2",#N/A,FALSE,"懸案事項"}</definedName>
-    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守委託単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="C保守支援単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
+    <definedName name="C保守単価">'[2]見積明細(ハードのみ）'!#REF!</definedName>
     <definedName name="DDDD" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
     <definedName name="def" hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
     <definedName name="e" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
@@ -74,7 +74,6 @@
     <definedName name="Ｏホ">#REF!</definedName>
     <definedName name="PG単価">[6]明細合計!#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">マスタリスト!$A$1:$P$67</definedName>
     <definedName name="PrintDaicho">[7]!PrintDaicho</definedName>
     <definedName name="QuitDaicho">[7]!QuitDaicho</definedName>
     <definedName name="SE単価">[6]明細合計!#REF!</definedName>
@@ -114,43 +113,17 @@
     <definedName name="ヘッダー">#REF!</definedName>
     <definedName name="ユーザー一覧">'[10]工数計算(ﾈｯﾄﾜｰｸ）'!#REF!</definedName>
     <definedName name="一般社員時間外労働手当部門別集計ｸｴﾘｰ">#REF!</definedName>
-    <definedName name="人日原価">#REF!</definedName>
-    <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
-    <definedName name="住民税115">#REF!</definedName>
-    <definedName name="住民税96">#REF!</definedName>
-    <definedName name="住民税納付先の登録7">#REF!</definedName>
     <definedName name="価格表">#REF!</definedName>
-    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
-    <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
-    <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
-    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
-    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
-    <definedName name="単価">#REF!</definedName>
-    <definedName name="単価種別">#REF!</definedName>
-    <definedName name="原価">#REF!</definedName>
-    <definedName name="売値">#REF!</definedName>
-    <definedName name="定価">#REF!</definedName>
-    <definedName name="宿泊">#REF!</definedName>
-    <definedName name="宿泊単金">#REF!</definedName>
-    <definedName name="工程別生産性">#REF!</definedName>
-    <definedName name="日帰り">#REF!</definedName>
-    <definedName name="日帰り単金">#REF!</definedName>
     <definedName name="概要_基準日設定" hidden="1">#REF!</definedName>
-    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
     <definedName name="機種SORT">[11]!機種SORT</definedName>
     <definedName name="機能別原価">#REF!</definedName>
-    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
-    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
-    <definedName name="種別">#REF!</definedName>
-    <definedName name="見積工数">#REF!</definedName>
-    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
-    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
     <definedName name="銀行の登録48">#REF!</definedName>
     <definedName name="銀行の登録67">#REF!</definedName>
     <definedName name="銀行の登録7">#REF!</definedName>
-    <definedName name="関連表" hidden="1">#REF!</definedName>
-    <definedName name="電車">#REF!</definedName>
+    <definedName name="見積工数">#REF!</definedName>
+    <definedName name="原価">#REF!</definedName>
+    <definedName name="工程別生産性">#REF!</definedName>
     <definedName name="項目名の登録1">#REF!</definedName>
     <definedName name="項目名の登録2">#REF!</definedName>
     <definedName name="項目名の登録3">#REF!</definedName>
@@ -159,7 +132,33 @@
     <definedName name="項目名の登録6">#REF!</definedName>
     <definedName name="項目名の登録7">#REF!</definedName>
     <definedName name="項目名の登録8">#REF!</definedName>
+    <definedName name="仕切り">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="仕切単価">'[2]見積明細(ハードのみ）'!$R$5:$R$34</definedName>
+    <definedName name="社共単価">'[2]見積明細(ハードのみ）'!$T$5:$T$34</definedName>
+    <definedName name="種別">#REF!</definedName>
+    <definedName name="住民税115">#REF!</definedName>
+    <definedName name="住民税96">#REF!</definedName>
+    <definedName name="住民税納付先の登録7">#REF!</definedName>
+    <definedName name="宿泊">#REF!</definedName>
+    <definedName name="宿泊単金">#REF!</definedName>
+    <definedName name="人日原価">#REF!</definedName>
+    <definedName name="単価">#REF!</definedName>
+    <definedName name="単価種別">#REF!</definedName>
+    <definedName name="値引単価">'[2]見積明細(ハードのみ）'!$J$5:$J$34</definedName>
+    <definedName name="直扱単価">'[2]見積明細(ハードのみ）'!$V$5:$V$34</definedName>
+    <definedName name="定価">#REF!</definedName>
+    <definedName name="電車">#REF!</definedName>
+    <definedName name="日帰り">#REF!</definedName>
+    <definedName name="日帰り単金">#REF!</definedName>
+    <definedName name="売値">#REF!</definedName>
     <definedName name="飛行機">#REF!</definedName>
+    <definedName name="備考">'[2]見積明細(ハードのみ）'!$AA$5:$AA$34</definedName>
+    <definedName name="標準価格">'[2]見積明細(ハードのみ）'!$C$5:$H$34</definedName>
+    <definedName name="部">'[2]見積明細(ハードのみ）'!$Z$5:$Z$34</definedName>
+    <definedName name="部門別時間外労働手当状況">#REF!</definedName>
+    <definedName name="保守委託単価">'[2]見積明細(ハードのみ）'!$N$5:$N$34</definedName>
+    <definedName name="保守支援単価">'[2]見積明細(ハードのみ）'!$P$5:$P$34</definedName>
+    <definedName name="保守単価">'[2]見積明細(ハードのみ）'!$L$5:$L$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -229,17 +228,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -267,7 +266,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -44680,23 +44679,17 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="1" customWidth="1"/>
-    <col min="8" max="11" width="25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="1.28515625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="4.42578125" style="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="14" customWidth="1"/>
+    <col min="4" max="15" width="16.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="4.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -44711,7 +44704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="4.9000000000000004" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="C2" s="20"/>
       <c r="D2" s="21"/>
@@ -44727,7 +44720,7 @@
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
     </row>
-    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="3" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B3" s="19"/>
       <c r="C3" s="61" t="s">
         <v>4</v>
@@ -44753,7 +44746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="19"/>
       <c r="C4" s="15"/>
       <c r="D4" s="11"/>
@@ -44777,7 +44770,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="60"/>
     </row>
-    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -44817,7 +44810,7 @@
       </c>
       <c r="O5" s="60"/>
     </row>
-    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1">
+    <row r="6" spans="1:15" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B6" s="19"/>
       <c r="C6" s="16"/>
       <c r="D6" s="43"/>
@@ -44833,7 +44826,7 @@
       <c r="N6" s="28"/>
       <c r="O6" s="57"/>
     </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1">
+    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19"/>
       <c r="C7" s="17"/>
       <c r="D7" s="46"/>
@@ -44849,7 +44842,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="58"/>
     </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1">
+    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="19"/>
       <c r="C8" s="18"/>
       <c r="D8" s="49"/>
@@ -44865,7 +44858,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="59"/>
     </row>
-    <row r="9" spans="1:15" ht="18" customHeight="1">
+    <row r="9" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="19"/>
       <c r="C9" s="17"/>
       <c r="D9" s="46"/>
@@ -44881,7 +44874,7 @@
       <c r="N9" s="32"/>
       <c r="O9" s="58"/>
     </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
+    <row r="10" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="49"/>
@@ -44897,7 +44890,7 @@
       <c r="N10" s="36"/>
       <c r="O10" s="59"/>
     </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1">
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="19"/>
       <c r="C11" s="17"/>
       <c r="D11" s="46"/>
@@ -44913,7 +44906,7 @@
       <c r="N11" s="32"/>
       <c r="O11" s="58"/>
     </row>
-    <row r="12" spans="1:15" ht="18" customHeight="1">
+    <row r="12" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="49"/>
@@ -44929,7 +44922,7 @@
       <c r="N12" s="36"/>
       <c r="O12" s="59"/>
     </row>
-    <row r="13" spans="1:15" ht="18" customHeight="1">
+    <row r="13" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="17"/>
       <c r="D13" s="46"/>
@@ -44945,7 +44938,7 @@
       <c r="N13" s="32"/>
       <c r="O13" s="58"/>
     </row>
-    <row r="14" spans="1:15" ht="18" customHeight="1">
+    <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="18"/>
       <c r="D14" s="49"/>
@@ -44961,7 +44954,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="59"/>
     </row>
-    <row r="15" spans="1:15" ht="18" customHeight="1">
+    <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="17"/>
       <c r="D15" s="46"/>
@@ -44977,7 +44970,7 @@
       <c r="N15" s="32"/>
       <c r="O15" s="58"/>
     </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1">
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
       <c r="D16" s="49"/>
@@ -44993,7 +44986,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="59"/>
     </row>
-    <row r="17" spans="2:15" ht="18" customHeight="1">
+    <row r="17" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="17"/>
       <c r="D17" s="46"/>
@@ -45009,7 +45002,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="58"/>
     </row>
-    <row r="18" spans="2:15" ht="18" customHeight="1">
+    <row r="18" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="19"/>
       <c r="C18" s="18"/>
       <c r="D18" s="49"/>
@@ -45025,7 +45018,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="59"/>
     </row>
-    <row r="19" spans="2:15" ht="18" customHeight="1">
+    <row r="19" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="19"/>
       <c r="C19" s="17"/>
       <c r="D19" s="46"/>
@@ -45041,7 +45034,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="58"/>
     </row>
-    <row r="20" spans="2:15" ht="18" customHeight="1">
+    <row r="20" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="19"/>
       <c r="C20" s="18"/>
       <c r="D20" s="49"/>
@@ -45057,7 +45050,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="59"/>
     </row>
-    <row r="21" spans="2:15" ht="18" customHeight="1">
+    <row r="21" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="19"/>
       <c r="C21" s="17"/>
       <c r="D21" s="46"/>
@@ -45073,7 +45066,7 @@
       <c r="N21" s="32"/>
       <c r="O21" s="58"/>
     </row>
-    <row r="22" spans="2:15" ht="18" customHeight="1">
+    <row r="22" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="19"/>
       <c r="C22" s="18"/>
       <c r="D22" s="49"/>
@@ -45089,7 +45082,7 @@
       <c r="N22" s="36"/>
       <c r="O22" s="59"/>
     </row>
-    <row r="23" spans="2:15" ht="18" customHeight="1">
+    <row r="23" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="19"/>
       <c r="C23" s="17"/>
       <c r="D23" s="46"/>
@@ -45105,7 +45098,7 @@
       <c r="N23" s="32"/>
       <c r="O23" s="58"/>
     </row>
-    <row r="24" spans="2:15" ht="18" customHeight="1">
+    <row r="24" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="19"/>
       <c r="C24" s="18"/>
       <c r="D24" s="49"/>
@@ -45121,7 +45114,7 @@
       <c r="N24" s="36"/>
       <c r="O24" s="59"/>
     </row>
-    <row r="25" spans="2:15" ht="18" customHeight="1">
+    <row r="25" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="19"/>
       <c r="C25" s="17"/>
       <c r="D25" s="46"/>
@@ -45137,7 +45130,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="58"/>
     </row>
-    <row r="26" spans="2:15" ht="18" customHeight="1">
+    <row r="26" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="19"/>
       <c r="C26" s="18"/>
       <c r="D26" s="49"/>
@@ -45153,7 +45146,7 @@
       <c r="N26" s="36"/>
       <c r="O26" s="59"/>
     </row>
-    <row r="27" spans="2:15" ht="18" customHeight="1">
+    <row r="27" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="19"/>
       <c r="C27" s="17"/>
       <c r="D27" s="46"/>
@@ -45169,7 +45162,7 @@
       <c r="N27" s="32"/>
       <c r="O27" s="58"/>
     </row>
-    <row r="28" spans="2:15" ht="18" customHeight="1">
+    <row r="28" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="19"/>
       <c r="C28" s="18"/>
       <c r="D28" s="49"/>
@@ -45185,7 +45178,7 @@
       <c r="N28" s="36"/>
       <c r="O28" s="59"/>
     </row>
-    <row r="29" spans="2:15" ht="18" customHeight="1">
+    <row r="29" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="19"/>
       <c r="C29" s="17"/>
       <c r="D29" s="46"/>
@@ -45201,7 +45194,7 @@
       <c r="N29" s="32"/>
       <c r="O29" s="58"/>
     </row>
-    <row r="30" spans="2:15" ht="18" customHeight="1">
+    <row r="30" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="19"/>
       <c r="C30" s="18"/>
       <c r="D30" s="49"/>
@@ -45217,7 +45210,7 @@
       <c r="N30" s="36"/>
       <c r="O30" s="59"/>
     </row>
-    <row r="31" spans="2:15" ht="18" customHeight="1">
+    <row r="31" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="19"/>
       <c r="C31" s="17"/>
       <c r="D31" s="46"/>
@@ -45233,7 +45226,7 @@
       <c r="N31" s="32"/>
       <c r="O31" s="58"/>
     </row>
-    <row r="32" spans="2:15" ht="18" customHeight="1">
+    <row r="32" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19"/>
       <c r="C32" s="18"/>
       <c r="D32" s="49"/>
@@ -45249,7 +45242,7 @@
       <c r="N32" s="36"/>
       <c r="O32" s="59"/>
     </row>
-    <row r="33" spans="2:15" ht="18" customHeight="1">
+    <row r="33" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="19"/>
       <c r="C33" s="17"/>
       <c r="D33" s="46"/>
@@ -45265,7 +45258,7 @@
       <c r="N33" s="32"/>
       <c r="O33" s="58"/>
     </row>
-    <row r="34" spans="2:15" ht="18" customHeight="1">
+    <row r="34" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="19"/>
       <c r="C34" s="18"/>
       <c r="D34" s="49"/>
@@ -45281,7 +45274,7 @@
       <c r="N34" s="36"/>
       <c r="O34" s="59"/>
     </row>
-    <row r="35" spans="2:15" ht="18" customHeight="1">
+    <row r="35" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="19"/>
       <c r="C35" s="17"/>
       <c r="D35" s="46"/>
@@ -45297,7 +45290,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="58"/>
     </row>
-    <row r="36" spans="2:15" ht="18" customHeight="1">
+    <row r="36" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
       <c r="D36" s="49"/>
@@ -45313,7 +45306,7 @@
       <c r="N36" s="36"/>
       <c r="O36" s="59"/>
     </row>
-    <row r="37" spans="2:15" ht="18" customHeight="1">
+    <row r="37" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19"/>
       <c r="C37" s="17"/>
       <c r="D37" s="46"/>
@@ -45329,7 +45322,7 @@
       <c r="N37" s="32"/>
       <c r="O37" s="58"/>
     </row>
-    <row r="38" spans="2:15" ht="18" customHeight="1">
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
       <c r="D38" s="43"/>
@@ -45345,7 +45338,7 @@
       <c r="N38" s="28"/>
       <c r="O38" s="59"/>
     </row>
-    <row r="39" spans="2:15" ht="18" customHeight="1">
+    <row r="39" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19"/>
       <c r="C39" s="17"/>
       <c r="D39" s="46"/>
@@ -45361,7 +45354,7 @@
       <c r="N39" s="32"/>
       <c r="O39" s="58"/>
     </row>
-    <row r="40" spans="2:15" ht="18" customHeight="1">
+    <row r="40" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19"/>
       <c r="C40" s="18"/>
       <c r="D40" s="49"/>
@@ -45377,7 +45370,7 @@
       <c r="N40" s="36"/>
       <c r="O40" s="59"/>
     </row>
-    <row r="41" spans="2:15" ht="18" customHeight="1">
+    <row r="41" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="46"/>
@@ -45393,7 +45386,7 @@
       <c r="N41" s="32"/>
       <c r="O41" s="58"/>
     </row>
-    <row r="42" spans="2:15" ht="18" customHeight="1">
+    <row r="42" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="19"/>
       <c r="C42" s="18"/>
       <c r="D42" s="49"/>
@@ -45409,7 +45402,7 @@
       <c r="N42" s="36"/>
       <c r="O42" s="59"/>
     </row>
-    <row r="43" spans="2:15" ht="18" customHeight="1">
+    <row r="43" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="46"/>
@@ -45425,7 +45418,7 @@
       <c r="N43" s="32"/>
       <c r="O43" s="58"/>
     </row>
-    <row r="44" spans="2:15" ht="18" customHeight="1">
+    <row r="44" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19"/>
       <c r="C44" s="18"/>
       <c r="D44" s="49"/>
@@ -45441,7 +45434,7 @@
       <c r="N44" s="36"/>
       <c r="O44" s="59"/>
     </row>
-    <row r="45" spans="2:15" ht="18" customHeight="1">
+    <row r="45" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="46"/>
@@ -45457,7 +45450,7 @@
       <c r="N45" s="32"/>
       <c r="O45" s="58"/>
     </row>
-    <row r="46" spans="2:15" ht="18" customHeight="1">
+    <row r="46" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19"/>
       <c r="C46" s="18"/>
       <c r="D46" s="49"/>
@@ -45473,7 +45466,7 @@
       <c r="N46" s="36"/>
       <c r="O46" s="59"/>
     </row>
-    <row r="47" spans="2:15" ht="18" customHeight="1">
+    <row r="47" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="46"/>
@@ -45489,7 +45482,7 @@
       <c r="N47" s="32"/>
       <c r="O47" s="58"/>
     </row>
-    <row r="48" spans="2:15" ht="18" customHeight="1">
+    <row r="48" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="19"/>
       <c r="C48" s="18"/>
       <c r="D48" s="49"/>
@@ -45505,7 +45498,7 @@
       <c r="N48" s="36"/>
       <c r="O48" s="59"/>
     </row>
-    <row r="49" spans="2:15" ht="18" customHeight="1">
+    <row r="49" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="46"/>
@@ -45521,7 +45514,7 @@
       <c r="N49" s="32"/>
       <c r="O49" s="58"/>
     </row>
-    <row r="50" spans="2:15" ht="18" customHeight="1">
+    <row r="50" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="19"/>
       <c r="C50" s="18"/>
       <c r="D50" s="49"/>
@@ -45537,7 +45530,7 @@
       <c r="N50" s="36"/>
       <c r="O50" s="59"/>
     </row>
-    <row r="51" spans="2:15" ht="18" customHeight="1">
+    <row r="51" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="46"/>
@@ -45553,7 +45546,7 @@
       <c r="N51" s="32"/>
       <c r="O51" s="58"/>
     </row>
-    <row r="52" spans="2:15" ht="18" customHeight="1">
+    <row r="52" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19"/>
       <c r="C52" s="18"/>
       <c r="D52" s="49"/>
@@ -45569,7 +45562,7 @@
       <c r="N52" s="36"/>
       <c r="O52" s="59"/>
     </row>
-    <row r="53" spans="2:15" ht="18" customHeight="1">
+    <row r="53" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="46"/>
@@ -45585,7 +45578,7 @@
       <c r="N53" s="32"/>
       <c r="O53" s="58"/>
     </row>
-    <row r="54" spans="2:15" ht="18" customHeight="1">
+    <row r="54" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19"/>
       <c r="C54" s="18"/>
       <c r="D54" s="49"/>
@@ -45601,7 +45594,7 @@
       <c r="N54" s="36"/>
       <c r="O54" s="59"/>
     </row>
-    <row r="55" spans="2:15" ht="18" customHeight="1">
+    <row r="55" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="46"/>
@@ -45617,7 +45610,7 @@
       <c r="N55" s="32"/>
       <c r="O55" s="58"/>
     </row>
-    <row r="56" spans="2:15" ht="18" customHeight="1">
+    <row r="56" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="19"/>
       <c r="C56" s="18"/>
       <c r="D56" s="49"/>
@@ -45633,7 +45626,7 @@
       <c r="N56" s="36"/>
       <c r="O56" s="59"/>
     </row>
-    <row r="57" spans="2:15" ht="18" customHeight="1">
+    <row r="57" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="46"/>
@@ -45649,7 +45642,7 @@
       <c r="N57" s="32"/>
       <c r="O57" s="58"/>
     </row>
-    <row r="58" spans="2:15" ht="18" customHeight="1">
+    <row r="58" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="49"/>
@@ -45665,7 +45658,7 @@
       <c r="N58" s="36"/>
       <c r="O58" s="59"/>
     </row>
-    <row r="59" spans="2:15" ht="18" customHeight="1">
+    <row r="59" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="46"/>
@@ -45681,7 +45674,7 @@
       <c r="N59" s="32"/>
       <c r="O59" s="58"/>
     </row>
-    <row r="60" spans="2:15" ht="18" customHeight="1">
+    <row r="60" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="19"/>
       <c r="C60" s="18"/>
       <c r="D60" s="49"/>
@@ -45697,7 +45690,7 @@
       <c r="N60" s="36"/>
       <c r="O60" s="59"/>
     </row>
-    <row r="61" spans="2:15" ht="18" customHeight="1">
+    <row r="61" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="46"/>
@@ -45713,7 +45706,7 @@
       <c r="N61" s="32"/>
       <c r="O61" s="58"/>
     </row>
-    <row r="62" spans="2:15" ht="18" customHeight="1">
+    <row r="62" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="19"/>
       <c r="C62" s="18"/>
       <c r="D62" s="49"/>
@@ -45729,7 +45722,7 @@
       <c r="N62" s="36"/>
       <c r="O62" s="59"/>
     </row>
-    <row r="63" spans="2:15" ht="18" customHeight="1">
+    <row r="63" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="46"/>
@@ -45745,7 +45738,7 @@
       <c r="N63" s="32"/>
       <c r="O63" s="58"/>
     </row>
-    <row r="64" spans="2:15" ht="18" customHeight="1">
+    <row r="64" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="19"/>
       <c r="C64" s="18"/>
       <c r="D64" s="49"/>
@@ -45761,7 +45754,7 @@
       <c r="N64" s="36"/>
       <c r="O64" s="59"/>
     </row>
-    <row r="65" spans="2:15" ht="18" customHeight="1">
+    <row r="65" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="46"/>
@@ -45777,7 +45770,7 @@
       <c r="N65" s="32"/>
       <c r="O65" s="58"/>
     </row>
-    <row r="66" spans="2:15" ht="18" customHeight="1">
+    <row r="66" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="19"/>
       <c r="C66" s="18"/>
       <c r="D66" s="49"/>
@@ -45793,7 +45786,7 @@
       <c r="N66" s="36"/>
       <c r="O66" s="59"/>
     </row>
-    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1">
+    <row r="67" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
       <c r="D67" s="54"/>
@@ -45809,7 +45802,7 @@
       <c r="N67" s="41"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="2:15" ht="12.75" thickTop="1"/>
+    <row r="68" spans="2:15" ht="12.75" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="O3:O5"/>
@@ -45824,7 +45817,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;10日通システム株式会社 &amp;C&amp;"ＭＳ ゴシック,標準"&amp;16標準報酬月額表（厚生年金）&amp;R&amp;"ＭＳ ゴシック,標準"&amp;10&amp;KFF0000 &amp;K01+000&amp;D　&amp;T　
 &amp;KFF0000 &amp;K01+000page&amp;P</oddHeader>
